--- a/life_data.xlsx
+++ b/life_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyok1\.vscode\exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4435B1A-9B7E-42E7-A85F-DC2CD53F5E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BFDCD5-32C7-4D47-8B3F-58731A12FD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7EF14BDE-7D47-4E80-ACEB-8828DD5A1407}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="34">
   <si>
     <t>종로구</t>
   </si>
@@ -113,7 +113,7 @@
     <t>강동구</t>
   </si>
   <si>
-    <t>병원 수</t>
+    <t>주거환경만족도</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -121,27 +121,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>문화시설수</t>
+    <t>의료시설 수</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>부가가치</t>
+    <t>문화시설 수</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>집값안정화지수</t>
+    <t>경제력</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1인당녹지</t>
+    <t>주택가격 안정화지수</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>주거환경만족도</t>
+    <t>1인당 녹지 면적</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>보육시설수</t>
+    <t>상업시설 수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체녹지</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -152,7 +156,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +192,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -197,7 +216,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -220,6 +239,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -233,7 +280,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -247,10 +294,16 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -594,41 +647,45 @@
   <dimension ref="A1:KB402"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K12" sqref="K2:K12"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="5" width="15.69921875" customWidth="1"/>
     <col min="6" max="6" width="15.69921875" style="2" customWidth="1"/>
-    <col min="7" max="9" width="15.69921875" customWidth="1"/>
+    <col min="7" max="8" width="15.69921875" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
     <col min="13" max="13" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:288" x14ac:dyDescent="0.4">
       <c r="C1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
         <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
         <v>32</v>
       </c>
-      <c r="J1" t="s">
-        <v>31</v>
+      <c r="K1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:288" x14ac:dyDescent="0.4">
@@ -656,10 +713,13 @@
       <c r="H2" s="3">
         <v>26.684098259999999</v>
       </c>
-      <c r="I2" s="5">
-        <v>173</v>
-      </c>
-      <c r="J2" s="1">
+      <c r="I2" s="7">
+        <v>1440374</v>
+      </c>
+      <c r="J2" s="5">
+        <v>2249993</v>
+      </c>
+      <c r="K2" s="1">
         <v>5.97</v>
       </c>
     </row>
@@ -688,10 +748,13 @@
       <c r="H3" s="3">
         <v>26.890935280000001</v>
       </c>
-      <c r="I3" s="4">
-        <v>188</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="I3" s="7">
+        <v>797721</v>
+      </c>
+      <c r="J3" s="5">
+        <v>2320955</v>
+      </c>
+      <c r="K3" s="1">
         <v>6.1</v>
       </c>
     </row>
@@ -720,10 +783,13 @@
       <c r="H4" s="3">
         <v>26.963048369999999</v>
       </c>
-      <c r="I4" s="4">
-        <v>207</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="I4" s="7">
+        <v>797721</v>
+      </c>
+      <c r="J4" s="5">
+        <v>2320955</v>
+      </c>
+      <c r="K4" s="1">
         <v>5.56</v>
       </c>
     </row>
@@ -752,10 +818,13 @@
       <c r="H5" s="3">
         <v>26.99</v>
       </c>
-      <c r="I5" s="4">
-        <v>224</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="I5" s="7">
+        <v>797721</v>
+      </c>
+      <c r="J5" s="5">
+        <v>2320955</v>
+      </c>
+      <c r="K5" s="1">
         <v>5.89</v>
       </c>
     </row>
@@ -784,10 +853,13 @@
       <c r="H6" s="3">
         <v>26.31</v>
       </c>
-      <c r="I6" s="4">
-        <v>238</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="I6" s="7">
+        <v>797721</v>
+      </c>
+      <c r="J6" s="5">
+        <v>2320955</v>
+      </c>
+      <c r="K6" s="1">
         <v>5.97</v>
       </c>
     </row>
@@ -816,10 +888,13 @@
       <c r="H7" s="3">
         <v>26.39</v>
       </c>
-      <c r="I7" s="4">
-        <v>244</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="I7" s="7">
+        <v>797721</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1676116</v>
+      </c>
+      <c r="K7" s="1">
         <v>5.61</v>
       </c>
       <c r="N7" s="2"/>
@@ -1073,10 +1148,13 @@
       <c r="H8" s="3">
         <v>26.82</v>
       </c>
-      <c r="I8" s="4">
-        <v>243</v>
-      </c>
-      <c r="J8" s="1">
+      <c r="I8" s="7">
+        <v>797721</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1676116</v>
+      </c>
+      <c r="K8" s="1">
         <v>5.85</v>
       </c>
     </row>
@@ -1106,10 +1184,13 @@
       <c r="H9" s="3">
         <v>24.51</v>
       </c>
-      <c r="I9" s="4">
-        <v>231</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="I9" s="7">
+        <v>797721</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1875445</v>
+      </c>
+      <c r="K9" s="1">
         <v>5.98</v>
       </c>
       <c r="N9" s="3"/>
@@ -1363,10 +1444,13 @@
       <c r="H10" s="3">
         <v>25.13</v>
       </c>
-      <c r="I10" s="4">
-        <v>221</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="I10" s="7">
+        <v>799434</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1946139</v>
+      </c>
+      <c r="K10" s="1">
         <v>6.04</v>
       </c>
       <c r="N10" s="4"/>
@@ -1620,10 +1704,13 @@
       <c r="H11" s="3">
         <v>25</v>
       </c>
-      <c r="I11" s="4">
-        <v>201</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="I11" s="7">
+        <v>799434</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1946139</v>
+      </c>
+      <c r="K11" s="1">
         <v>5.97</v>
       </c>
       <c r="N11" s="1"/>
@@ -1877,13 +1964,15 @@
       <c r="H12" s="3">
         <v>25.28</v>
       </c>
-      <c r="I12" s="4">
-        <v>199</v>
-      </c>
-      <c r="J12" s="1">
+      <c r="I12" s="7">
+        <v>799434</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1947150</v>
+      </c>
+      <c r="K12" s="1">
         <v>5.87</v>
       </c>
-      <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:288" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
@@ -1910,13 +1999,15 @@
       <c r="H13" s="3">
         <v>22.132868169999998</v>
       </c>
-      <c r="I13" s="4">
-        <v>256</v>
-      </c>
-      <c r="J13" s="1">
+      <c r="I13" s="7">
+        <v>126200</v>
+      </c>
+      <c r="J13" s="5">
+        <v>1677285</v>
+      </c>
+      <c r="K13" s="1">
         <v>6.03</v>
       </c>
-      <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:288" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
@@ -1943,13 +2034,15 @@
       <c r="H14" s="3">
         <v>21.986831949999999</v>
       </c>
-      <c r="I14" s="4">
-        <v>304</v>
-      </c>
-      <c r="J14" s="1">
+      <c r="I14" s="7">
+        <v>126200</v>
+      </c>
+      <c r="J14" s="5">
+        <v>518407</v>
+      </c>
+      <c r="K14" s="1">
         <v>6.26</v>
       </c>
-      <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:288" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
@@ -1976,13 +2069,15 @@
       <c r="H15" s="3">
         <v>22.216913129999998</v>
       </c>
-      <c r="I15" s="4">
-        <v>332</v>
-      </c>
-      <c r="J15" s="1">
+      <c r="I15" s="7">
+        <v>187674</v>
+      </c>
+      <c r="J15" s="5">
+        <v>518407</v>
+      </c>
+      <c r="K15" s="1">
         <v>5.8</v>
       </c>
-      <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:288" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
@@ -2009,13 +2104,15 @@
       <c r="H16" s="3">
         <v>20.53</v>
       </c>
-      <c r="I16" s="4">
-        <v>331</v>
-      </c>
-      <c r="J16" s="1">
+      <c r="I16" s="7">
+        <v>187674</v>
+      </c>
+      <c r="J16" s="5">
+        <v>518407</v>
+      </c>
+      <c r="K16" s="1">
         <v>5.92</v>
       </c>
-      <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
@@ -2042,13 +2139,15 @@
       <c r="H17" s="3">
         <v>20.82</v>
       </c>
-      <c r="I17" s="4">
-        <v>332</v>
-      </c>
-      <c r="J17" s="1">
+      <c r="I17" s="7">
+        <v>187674</v>
+      </c>
+      <c r="J17" s="5">
+        <v>518407</v>
+      </c>
+      <c r="K17" s="1">
         <v>5.94</v>
       </c>
-      <c r="L17" s="3"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -2100,13 +2199,15 @@
       <c r="H18" s="3">
         <v>23.79</v>
       </c>
-      <c r="I18" s="4">
-        <v>311</v>
-      </c>
-      <c r="J18" s="1">
+      <c r="I18" s="7">
+        <v>157200</v>
+      </c>
+      <c r="J18" s="5">
+        <v>518329</v>
+      </c>
+      <c r="K18" s="1">
         <v>6.25</v>
       </c>
-      <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
@@ -2133,13 +2234,15 @@
       <c r="H19" s="3">
         <v>24.56</v>
       </c>
-      <c r="I19" s="4">
-        <v>289</v>
-      </c>
-      <c r="J19" s="1">
+      <c r="I19" s="7">
+        <v>157200</v>
+      </c>
+      <c r="J19" s="5">
+        <v>575847</v>
+      </c>
+      <c r="K19" s="1">
         <v>5.82</v>
       </c>
-      <c r="L19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
@@ -2191,13 +2294,15 @@
       <c r="H20" s="3">
         <v>25.01</v>
       </c>
-      <c r="I20" s="4">
-        <v>284</v>
-      </c>
-      <c r="J20" s="1">
+      <c r="I20" s="7">
+        <v>157200</v>
+      </c>
+      <c r="J20" s="5">
+        <v>575847</v>
+      </c>
+      <c r="K20" s="1">
         <v>5.7</v>
       </c>
-      <c r="L20" s="3"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
@@ -2249,13 +2354,15 @@
       <c r="H21" s="3">
         <v>25.52</v>
       </c>
-      <c r="I21" s="4">
-        <v>272</v>
-      </c>
-      <c r="J21" s="1">
+      <c r="I21" s="7">
+        <v>157200</v>
+      </c>
+      <c r="J21" s="5">
+        <v>581570</v>
+      </c>
+      <c r="K21" s="1">
         <v>5.82</v>
       </c>
-      <c r="L21" s="3"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -2307,13 +2414,15 @@
       <c r="H22" s="3">
         <v>25.02</v>
       </c>
-      <c r="I22" s="4">
-        <v>260</v>
-      </c>
-      <c r="J22" s="1">
+      <c r="I22" s="7">
+        <v>157200</v>
+      </c>
+      <c r="J22" s="5">
+        <v>582922</v>
+      </c>
+      <c r="K22" s="1">
         <v>5.76</v>
       </c>
-      <c r="L22" s="3"/>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
@@ -2340,13 +2449,15 @@
       <c r="H23" s="3">
         <v>23.72</v>
       </c>
-      <c r="I23" s="4">
-        <v>260</v>
-      </c>
-      <c r="J23" s="1">
+      <c r="I23" s="7">
+        <v>157200</v>
+      </c>
+      <c r="J23" s="5">
+        <v>582922</v>
+      </c>
+      <c r="K23" s="1">
         <v>6.2</v>
       </c>
-      <c r="L23" s="3"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
@@ -2373,13 +2484,15 @@
       <c r="H24" s="3">
         <v>40.950017320000001</v>
       </c>
-      <c r="I24" s="4">
-        <v>201</v>
-      </c>
-      <c r="J24" s="1">
+      <c r="I24" s="7">
+        <v>23904</v>
+      </c>
+      <c r="J24" s="5">
+        <v>585797</v>
+      </c>
+      <c r="K24" s="1">
         <v>6.36</v>
       </c>
-      <c r="L24" s="3"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
@@ -2406,13 +2519,15 @@
       <c r="H25" s="3">
         <v>41.123997979999999</v>
       </c>
-      <c r="I25" s="4">
-        <v>201</v>
-      </c>
-      <c r="J25" s="1">
+      <c r="I25" s="7">
+        <v>23904</v>
+      </c>
+      <c r="J25" s="5">
+        <v>575847</v>
+      </c>
+      <c r="K25" s="1">
         <v>5.98</v>
       </c>
-      <c r="L25" s="3"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
@@ -2439,13 +2554,15 @@
       <c r="H26" s="3">
         <v>41.351334809999997</v>
       </c>
-      <c r="I26" s="4">
-        <v>210</v>
-      </c>
-      <c r="J26" s="1">
+      <c r="I26" s="7">
+        <v>23904</v>
+      </c>
+      <c r="J26" s="5">
+        <v>320000</v>
+      </c>
+      <c r="K26" s="1">
         <v>6.01</v>
       </c>
-      <c r="L26" s="3"/>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
@@ -2472,13 +2589,15 @@
       <c r="H27" s="3">
         <v>41.89</v>
       </c>
-      <c r="I27" s="4">
-        <v>207</v>
-      </c>
-      <c r="J27" s="1">
+      <c r="I27" s="7">
+        <v>23904</v>
+      </c>
+      <c r="J27" s="5">
+        <v>322150</v>
+      </c>
+      <c r="K27" s="1">
         <v>6</v>
       </c>
-      <c r="L27" s="3"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -2530,10 +2649,13 @@
       <c r="H28" s="3">
         <v>42.36</v>
       </c>
-      <c r="I28" s="4">
-        <v>204</v>
-      </c>
-      <c r="J28" s="1">
+      <c r="I28" s="7">
+        <v>23904</v>
+      </c>
+      <c r="J28" s="5">
+        <v>322150</v>
+      </c>
+      <c r="K28" s="1">
         <v>5.52</v>
       </c>
     </row>
@@ -2562,10 +2684,13 @@
       <c r="H29" s="3">
         <v>37.42</v>
       </c>
-      <c r="I29" s="4">
-        <v>192</v>
-      </c>
-      <c r="J29" s="1">
+      <c r="I29" s="7">
+        <v>23904</v>
+      </c>
+      <c r="J29" s="5">
+        <v>322150</v>
+      </c>
+      <c r="K29" s="1">
         <v>5.7</v>
       </c>
       <c r="N29" s="3"/>
@@ -2619,10 +2744,13 @@
       <c r="H30" s="3">
         <v>37.840000000000003</v>
       </c>
-      <c r="I30" s="4">
-        <v>182</v>
-      </c>
-      <c r="J30" s="1">
+      <c r="I30" s="7">
+        <v>23904</v>
+      </c>
+      <c r="J30" s="5">
+        <v>322150</v>
+      </c>
+      <c r="K30" s="1">
         <v>5.55</v>
       </c>
       <c r="N30" s="4"/>
@@ -2677,10 +2805,13 @@
       <c r="H31" s="3">
         <v>38.15</v>
       </c>
-      <c r="I31" s="4">
-        <v>174</v>
-      </c>
-      <c r="J31" s="1">
+      <c r="I31" s="7">
+        <v>23904</v>
+      </c>
+      <c r="J31" s="5">
+        <v>270342</v>
+      </c>
+      <c r="K31" s="1">
         <v>6.24</v>
       </c>
       <c r="N31" s="1"/>
@@ -2734,10 +2865,13 @@
       <c r="H32" s="3">
         <v>38.79</v>
       </c>
-      <c r="I32" s="4">
-        <v>165</v>
-      </c>
-      <c r="J32" s="1">
+      <c r="I32" s="7">
+        <v>23904</v>
+      </c>
+      <c r="J32" s="5">
+        <v>270342</v>
+      </c>
+      <c r="K32" s="1">
         <v>5.81</v>
       </c>
     </row>
@@ -2766,10 +2900,13 @@
       <c r="H33" s="3">
         <v>39.43</v>
       </c>
-      <c r="I33" s="4">
-        <v>153</v>
-      </c>
-      <c r="J33" s="1">
+      <c r="I33" s="7">
+        <v>20496</v>
+      </c>
+      <c r="J33" s="5">
+        <v>270342</v>
+      </c>
+      <c r="K33" s="1">
         <v>5.79</v>
       </c>
     </row>
@@ -2798,10 +2935,13 @@
       <c r="H34" s="3">
         <v>40.200000000000003</v>
       </c>
-      <c r="I34" s="4">
-        <v>144</v>
-      </c>
-      <c r="J34" s="1">
+      <c r="I34" s="7">
+        <v>20496</v>
+      </c>
+      <c r="J34" s="5">
+        <v>270342</v>
+      </c>
+      <c r="K34" s="1">
         <v>5.57</v>
       </c>
     </row>
@@ -2830,10 +2970,13 @@
       <c r="H35" s="3">
         <v>40.703450629999999</v>
       </c>
-      <c r="I35" s="4">
-        <v>377</v>
-      </c>
-      <c r="J35" s="1">
+      <c r="I35" s="7">
+        <v>340352</v>
+      </c>
+      <c r="J35" s="5">
+        <v>272237</v>
+      </c>
+      <c r="K35" s="1">
         <v>6.08</v>
       </c>
     </row>
@@ -2862,10 +3005,13 @@
       <c r="H36" s="3">
         <v>41.065824710000001</v>
       </c>
-      <c r="I36" s="4">
-        <v>382</v>
-      </c>
-      <c r="J36" s="1">
+      <c r="I36" s="7">
+        <v>299794</v>
+      </c>
+      <c r="J36" s="5">
+        <v>272237</v>
+      </c>
+      <c r="K36" s="1">
         <v>5.92</v>
       </c>
     </row>
@@ -2894,10 +3040,13 @@
       <c r="H37" s="3">
         <v>41.177672700000002</v>
       </c>
-      <c r="I37" s="4">
-        <v>410</v>
-      </c>
-      <c r="J37" s="1">
+      <c r="I37" s="7">
+        <v>292746</v>
+      </c>
+      <c r="J37" s="5">
+        <v>270342</v>
+      </c>
+      <c r="K37" s="1">
         <v>6.28</v>
       </c>
       <c r="N37" s="2"/>
@@ -3126,10 +3275,13 @@
       <c r="H38" s="3">
         <v>41.06</v>
       </c>
-      <c r="I38" s="4">
-        <v>425</v>
-      </c>
-      <c r="J38" s="1">
+      <c r="I38" s="7">
+        <v>294615</v>
+      </c>
+      <c r="J38" s="5">
+        <v>1162753</v>
+      </c>
+      <c r="K38" s="1">
         <v>6.26</v>
       </c>
     </row>
@@ -3158,10 +3310,13 @@
       <c r="H39" s="3">
         <v>39.93</v>
       </c>
-      <c r="I39" s="4">
-        <v>450</v>
-      </c>
-      <c r="J39" s="1">
+      <c r="I39" s="7">
+        <v>292926</v>
+      </c>
+      <c r="J39" s="5">
+        <v>1164390</v>
+      </c>
+      <c r="K39" s="1">
         <v>5.62</v>
       </c>
       <c r="N39" s="3"/>
@@ -3390,10 +3545,13 @@
       <c r="H40" s="3">
         <v>39.53</v>
       </c>
-      <c r="I40" s="4">
-        <v>439</v>
-      </c>
-      <c r="J40" s="1">
+      <c r="I40" s="7">
+        <v>292926</v>
+      </c>
+      <c r="J40" s="5">
+        <v>1009599</v>
+      </c>
+      <c r="K40" s="1">
         <v>5.79</v>
       </c>
       <c r="N40" s="4"/>
@@ -3622,10 +3780,13 @@
       <c r="H41" s="3">
         <v>39.1</v>
       </c>
-      <c r="I41" s="4">
-        <v>438</v>
-      </c>
-      <c r="J41" s="1">
+      <c r="I41" s="7">
+        <v>292926</v>
+      </c>
+      <c r="J41" s="5">
+        <v>1009599</v>
+      </c>
+      <c r="K41" s="1">
         <v>6.36</v>
       </c>
       <c r="N41" s="1"/>
@@ -3855,10 +4016,13 @@
       <c r="H42" s="3">
         <v>37.4</v>
       </c>
-      <c r="I42" s="4">
-        <v>441</v>
-      </c>
-      <c r="J42" s="1">
+      <c r="I42" s="7">
+        <v>293799</v>
+      </c>
+      <c r="J42" s="5">
+        <v>1009599</v>
+      </c>
+      <c r="K42" s="1">
         <v>5.95</v>
       </c>
     </row>
@@ -3887,10 +4051,13 @@
       <c r="H43" s="3">
         <v>37.69</v>
       </c>
-      <c r="I43" s="4">
-        <v>441</v>
-      </c>
-      <c r="J43" s="1">
+      <c r="I43" s="7">
+        <v>293799</v>
+      </c>
+      <c r="J43" s="5">
+        <v>992742</v>
+      </c>
+      <c r="K43" s="1">
         <v>5.97</v>
       </c>
     </row>
@@ -3919,10 +4086,13 @@
       <c r="H44" s="3">
         <v>38.020000000000003</v>
       </c>
-      <c r="I44" s="4">
-        <v>409</v>
-      </c>
-      <c r="J44" s="1">
+      <c r="I44" s="7">
+        <v>293799</v>
+      </c>
+      <c r="J44" s="5">
+        <v>992742</v>
+      </c>
+      <c r="K44" s="1">
         <v>6.03</v>
       </c>
     </row>
@@ -3951,10 +4121,13 @@
       <c r="H45" s="3">
         <v>38.78</v>
       </c>
-      <c r="I45" s="4">
-        <v>373</v>
-      </c>
-      <c r="J45" s="1">
+      <c r="I45" s="7">
+        <v>293516</v>
+      </c>
+      <c r="J45" s="5">
+        <v>992742</v>
+      </c>
+      <c r="K45" s="1">
         <v>6.06</v>
       </c>
     </row>
@@ -3983,10 +4156,13 @@
       <c r="H46" s="3">
         <v>33.238174450000002</v>
       </c>
-      <c r="I46" s="4">
-        <v>271</v>
-      </c>
-      <c r="J46" s="1">
+      <c r="I46" s="7">
+        <v>65653</v>
+      </c>
+      <c r="J46" s="5">
+        <v>992742</v>
+      </c>
+      <c r="K46" s="1">
         <v>6.42</v>
       </c>
     </row>
@@ -4015,10 +4191,13 @@
       <c r="H47" s="3">
         <v>33.556224669999999</v>
       </c>
-      <c r="I47" s="4">
-        <v>272</v>
-      </c>
-      <c r="J47" s="1">
+      <c r="I47" s="7">
+        <v>65653</v>
+      </c>
+      <c r="J47" s="5">
+        <v>992742</v>
+      </c>
+      <c r="K47" s="1">
         <v>6</v>
       </c>
     </row>
@@ -4047,14 +4226,17 @@
       <c r="H48" s="3">
         <v>33.772307079999997</v>
       </c>
-      <c r="I48" s="4">
-        <v>292</v>
-      </c>
-      <c r="J48" s="1">
+      <c r="I48" s="7">
+        <v>65653</v>
+      </c>
+      <c r="J48" s="5">
+        <v>992742</v>
+      </c>
+      <c r="K48" s="1">
         <v>6.63</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -4079,14 +4261,17 @@
       <c r="H49" s="3">
         <v>34.1</v>
       </c>
-      <c r="I49" s="4">
-        <v>302</v>
-      </c>
-      <c r="J49" s="1">
+      <c r="I49" s="7">
+        <v>65653</v>
+      </c>
+      <c r="J49" s="5">
+        <v>992742</v>
+      </c>
+      <c r="K49" s="1">
         <v>7.1</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -4111,14 +4296,17 @@
       <c r="H50" s="3">
         <v>34.42</v>
       </c>
-      <c r="I50" s="4">
-        <v>302</v>
-      </c>
-      <c r="J50" s="1">
+      <c r="I50" s="7">
+        <v>65653</v>
+      </c>
+      <c r="J50" s="5">
+        <v>350000</v>
+      </c>
+      <c r="K50" s="1">
         <v>6.07</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>20</v>
       </c>
@@ -4143,14 +4331,17 @@
       <c r="H51" s="3">
         <v>34.659999999999997</v>
       </c>
-      <c r="I51" s="4">
-        <v>290</v>
-      </c>
-      <c r="J51" s="1">
+      <c r="I51" s="7">
+        <v>65653</v>
+      </c>
+      <c r="J51" s="5">
+        <v>350000</v>
+      </c>
+      <c r="K51" s="1">
         <v>6.49</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -4175,14 +4366,17 @@
       <c r="H52" s="3">
         <v>34.85</v>
       </c>
-      <c r="I52" s="4">
-        <v>281</v>
-      </c>
-      <c r="J52" s="1">
+      <c r="I52" s="7">
+        <v>65653</v>
+      </c>
+      <c r="J52" s="5">
+        <v>350000</v>
+      </c>
+      <c r="K52" s="1">
         <v>5.74</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -4208,14 +4402,17 @@
       <c r="H53" s="3">
         <v>27.51</v>
       </c>
-      <c r="I53" s="4">
-        <v>280</v>
-      </c>
-      <c r="J53" s="1">
+      <c r="I53" s="7">
+        <v>65653</v>
+      </c>
+      <c r="J53" s="5">
+        <v>350000</v>
+      </c>
+      <c r="K53" s="1">
         <v>6.2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -4240,14 +4437,17 @@
       <c r="H54" s="3">
         <v>27.58</v>
       </c>
-      <c r="I54" s="4">
-        <v>270</v>
-      </c>
-      <c r="J54" s="1">
+      <c r="I54" s="7">
+        <v>65653</v>
+      </c>
+      <c r="J54" s="5">
+        <v>350000</v>
+      </c>
+      <c r="K54" s="1">
         <v>6.22</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -4272,14 +4472,17 @@
       <c r="H55" s="3">
         <v>27.69</v>
       </c>
-      <c r="I55" s="4">
-        <v>251</v>
-      </c>
-      <c r="J55" s="1">
+      <c r="I55" s="7">
+        <v>65653</v>
+      </c>
+      <c r="J55" s="5">
+        <v>390187</v>
+      </c>
+      <c r="K55" s="1">
         <v>5.07</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>20</v>
       </c>
@@ -4304,14 +4507,17 @@
       <c r="H56" s="3">
         <v>27.97</v>
       </c>
-      <c r="I56" s="4">
-        <v>221</v>
-      </c>
-      <c r="J56" s="1">
+      <c r="I56" s="7">
+        <v>65651</v>
+      </c>
+      <c r="J56" s="5">
+        <v>390187</v>
+      </c>
+      <c r="K56" s="1">
         <v>6.46</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -4336,14 +4542,17 @@
       <c r="H57" s="3">
         <v>14.59531299</v>
       </c>
-      <c r="I57" s="4">
-        <v>208</v>
-      </c>
-      <c r="J57" s="1">
+      <c r="I57" s="8">
+        <v>20865</v>
+      </c>
+      <c r="J57" s="5">
+        <v>390187</v>
+      </c>
+      <c r="K57" s="1">
         <v>6.12</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -4368,14 +4577,17 @@
       <c r="H58" s="3">
         <v>14.733717629999999</v>
       </c>
-      <c r="I58" s="4">
-        <v>209</v>
-      </c>
-      <c r="J58" s="1">
+      <c r="I58" s="8">
+        <v>20865</v>
+      </c>
+      <c r="J58" s="5">
+        <v>392024</v>
+      </c>
+      <c r="K58" s="1">
         <v>5.91</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -4400,14 +4612,17 @@
       <c r="H59" s="3">
         <v>14.7584383</v>
       </c>
-      <c r="I59" s="4">
-        <v>223</v>
-      </c>
-      <c r="J59" s="1">
+      <c r="I59" s="8">
+        <v>20865</v>
+      </c>
+      <c r="J59" s="5">
+        <v>392024</v>
+      </c>
+      <c r="K59" s="1">
         <v>5.88</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -4432,14 +4647,17 @@
       <c r="H60" s="3">
         <v>14.85</v>
       </c>
-      <c r="I60" s="4">
-        <v>237</v>
-      </c>
-      <c r="J60" s="1">
+      <c r="I60" s="8">
+        <v>20865</v>
+      </c>
+      <c r="J60" s="5">
+        <v>392024</v>
+      </c>
+      <c r="K60" s="1">
         <v>6.36</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -4464,14 +4682,17 @@
       <c r="H61" s="3">
         <v>15.08</v>
       </c>
-      <c r="I61" s="4">
-        <v>229</v>
-      </c>
-      <c r="J61" s="1">
+      <c r="I61" s="8">
+        <v>20865</v>
+      </c>
+      <c r="J61" s="5">
+        <v>390187</v>
+      </c>
+      <c r="K61" s="1">
         <v>6.51</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -4496,14 +4717,17 @@
       <c r="H62" s="3">
         <v>15.21</v>
       </c>
-      <c r="I62" s="4">
-        <v>221</v>
-      </c>
-      <c r="J62" s="1">
+      <c r="I62" s="8">
+        <v>20865</v>
+      </c>
+      <c r="J62" s="5">
+        <v>196503</v>
+      </c>
+      <c r="K62" s="1">
         <v>6.26</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -4528,14 +4752,17 @@
       <c r="H63" s="3">
         <v>15.34</v>
       </c>
-      <c r="I63" s="4">
-        <v>217</v>
-      </c>
-      <c r="J63" s="1">
+      <c r="I63" s="8">
+        <v>20865</v>
+      </c>
+      <c r="J63" s="5">
+        <v>196503</v>
+      </c>
+      <c r="K63" s="1">
         <v>6.31</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -4561,14 +4788,17 @@
       <c r="H64" s="3">
         <v>14.75</v>
       </c>
-      <c r="I64" s="4">
-        <v>214</v>
-      </c>
-      <c r="J64" s="1">
+      <c r="I64" s="8">
+        <v>20865</v>
+      </c>
+      <c r="J64" s="5">
+        <v>196503</v>
+      </c>
+      <c r="K64" s="1">
         <v>6.66</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -4593,14 +4823,17 @@
       <c r="H65" s="3">
         <v>14.84</v>
       </c>
-      <c r="I65" s="4">
-        <v>199</v>
-      </c>
-      <c r="J65" s="1">
+      <c r="I65" s="8">
+        <v>20865</v>
+      </c>
+      <c r="J65" s="5">
+        <v>196503</v>
+      </c>
+      <c r="K65" s="1">
         <v>5.9</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -4625,14 +4858,17 @@
       <c r="H66" s="3">
         <v>15.01</v>
       </c>
-      <c r="I66" s="4">
-        <v>188</v>
-      </c>
-      <c r="J66" s="1">
+      <c r="I66" s="8">
+        <v>18807</v>
+      </c>
+      <c r="J66" s="5">
+        <v>196503</v>
+      </c>
+      <c r="K66" s="1">
         <v>6.4</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -4657,14 +4893,17 @@
       <c r="H67" s="3">
         <v>15.22</v>
       </c>
-      <c r="I67" s="4">
-        <v>176</v>
-      </c>
-      <c r="J67" s="1">
+      <c r="I67" s="8">
+        <v>18807</v>
+      </c>
+      <c r="J67" s="5">
+        <v>193152</v>
+      </c>
+      <c r="K67" s="1">
         <v>6.22</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -4689,14 +4928,17 @@
       <c r="H68" s="3">
         <v>13.99280448</v>
       </c>
-      <c r="I68" s="4">
-        <v>301</v>
-      </c>
-      <c r="J68" s="1">
+      <c r="I68" s="7">
+        <v>153692</v>
+      </c>
+      <c r="J68" s="5">
+        <v>193152</v>
+      </c>
+      <c r="K68" s="1">
         <v>6.3</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -4721,14 +4963,17 @@
       <c r="H69" s="3">
         <v>13.870226540000001</v>
       </c>
-      <c r="I69" s="4">
-        <v>334</v>
-      </c>
-      <c r="J69" s="1">
+      <c r="I69" s="7">
+        <v>153692</v>
+      </c>
+      <c r="J69" s="5">
+        <v>201658</v>
+      </c>
+      <c r="K69" s="1">
         <v>6.1</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -4753,14 +4998,17 @@
       <c r="H70" s="3">
         <v>13.868539480000001</v>
       </c>
-      <c r="I70" s="4">
-        <v>355</v>
-      </c>
-      <c r="J70" s="1">
+      <c r="I70" s="7">
+        <v>163557</v>
+      </c>
+      <c r="J70" s="5">
+        <v>203281</v>
+      </c>
+      <c r="K70" s="1">
         <v>6.37</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>16</v>
       </c>
@@ -4785,14 +5033,17 @@
       <c r="H71" s="3">
         <v>13.95</v>
       </c>
-      <c r="I71" s="4">
-        <v>356</v>
-      </c>
-      <c r="J71" s="1">
+      <c r="I71" s="7">
+        <v>163557</v>
+      </c>
+      <c r="J71" s="5">
+        <v>203281</v>
+      </c>
+      <c r="K71" s="1">
         <v>6.8</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>16</v>
       </c>
@@ -4817,14 +5068,17 @@
       <c r="H72" s="3">
         <v>13.82</v>
       </c>
-      <c r="I72" s="4">
-        <v>366</v>
-      </c>
-      <c r="J72" s="1">
+      <c r="I72" s="7">
+        <v>160627</v>
+      </c>
+      <c r="J72" s="5">
+        <v>206616</v>
+      </c>
+      <c r="K72" s="1">
         <v>6.37</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -4849,14 +5103,17 @@
       <c r="H73" s="3">
         <v>13.94</v>
       </c>
-      <c r="I73" s="4">
-        <v>364</v>
-      </c>
-      <c r="J73" s="1">
+      <c r="I73" s="7">
+        <v>160627</v>
+      </c>
+      <c r="J73" s="5">
+        <v>201658</v>
+      </c>
+      <c r="K73" s="1">
         <v>6.78</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>16</v>
       </c>
@@ -4881,14 +5138,17 @@
       <c r="H74" s="3">
         <v>14.09</v>
       </c>
-      <c r="I74" s="4">
-        <v>356</v>
-      </c>
-      <c r="J74" s="1">
+      <c r="I74" s="7">
+        <v>160627</v>
+      </c>
+      <c r="J74" s="5">
+        <v>523690</v>
+      </c>
+      <c r="K74" s="1">
         <v>6.25</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>16</v>
       </c>
@@ -4914,14 +5174,17 @@
       <c r="H75" s="3">
         <v>12.56</v>
       </c>
-      <c r="I75" s="4">
-        <v>341</v>
-      </c>
-      <c r="J75" s="1">
+      <c r="I75" s="7">
+        <v>155003</v>
+      </c>
+      <c r="J75" s="5">
+        <v>523690</v>
+      </c>
+      <c r="K75" s="1">
         <v>6.23</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>16</v>
       </c>
@@ -4946,14 +5209,17 @@
       <c r="H76" s="3">
         <v>12.75</v>
       </c>
-      <c r="I76" s="4">
-        <v>332</v>
-      </c>
-      <c r="J76" s="1">
+      <c r="I76" s="7">
+        <v>154703</v>
+      </c>
+      <c r="J76" s="5">
+        <v>523690</v>
+      </c>
+      <c r="K76" s="1">
         <v>6.34</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -4978,14 +5244,17 @@
       <c r="H77" s="3">
         <v>12.68</v>
       </c>
-      <c r="I77" s="4">
-        <v>318</v>
-      </c>
-      <c r="J77" s="1">
+      <c r="I77" s="7">
+        <v>154703</v>
+      </c>
+      <c r="J77" s="5">
+        <v>523690</v>
+      </c>
+      <c r="K77" s="1">
         <v>6.05</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -5010,14 +5279,17 @@
       <c r="H78" s="3">
         <v>12.75</v>
       </c>
-      <c r="I78" s="4">
-        <v>299</v>
-      </c>
-      <c r="J78" s="1">
+      <c r="I78" s="7">
+        <v>150588</v>
+      </c>
+      <c r="J78" s="5">
+        <v>473561</v>
+      </c>
+      <c r="K78" s="1">
         <v>6.55</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>17</v>
       </c>
@@ -5042,14 +5314,17 @@
       <c r="H79" s="3">
         <v>11.50105018</v>
       </c>
-      <c r="I79" s="4">
-        <v>197</v>
-      </c>
-      <c r="J79" s="1">
+      <c r="I79" s="7">
+        <v>43809</v>
+      </c>
+      <c r="J79" s="5">
+        <v>513589</v>
+      </c>
+      <c r="K79" s="1">
         <v>6.1</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>17</v>
       </c>
@@ -5074,14 +5349,17 @@
       <c r="H80" s="3">
         <v>11.58405836</v>
       </c>
-      <c r="I80" s="4">
-        <v>202</v>
-      </c>
-      <c r="J80" s="1">
+      <c r="I80" s="7">
+        <v>32937</v>
+      </c>
+      <c r="J80" s="5">
+        <v>513589</v>
+      </c>
+      <c r="K80" s="1">
         <v>6.17</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>17</v>
       </c>
@@ -5106,14 +5384,17 @@
       <c r="H81" s="3">
         <v>11.59120055</v>
       </c>
-      <c r="I81" s="4">
-        <v>203</v>
-      </c>
-      <c r="J81" s="1">
+      <c r="I81" s="7">
+        <v>32937</v>
+      </c>
+      <c r="J81" s="5">
+        <v>513589</v>
+      </c>
+      <c r="K81" s="1">
         <v>6.45</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>17</v>
       </c>
@@ -5138,14 +5419,17 @@
       <c r="H82" s="3">
         <v>11.7</v>
       </c>
-      <c r="I82" s="4">
-        <v>204</v>
-      </c>
-      <c r="J82" s="1">
+      <c r="I82" s="7">
+        <v>32937</v>
+      </c>
+      <c r="J82" s="5">
+        <v>513589</v>
+      </c>
+      <c r="K82" s="1">
         <v>5.7</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>17</v>
       </c>
@@ -5170,14 +5454,17 @@
       <c r="H83" s="3">
         <v>11.83</v>
       </c>
-      <c r="I83" s="4">
-        <v>195</v>
-      </c>
-      <c r="J83" s="1">
+      <c r="I83" s="7">
+        <v>34851</v>
+      </c>
+      <c r="J83" s="5">
+        <v>513589</v>
+      </c>
+      <c r="K83" s="1">
         <v>6.25</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>17</v>
       </c>
@@ -5202,14 +5489,17 @@
       <c r="H84" s="3">
         <v>11.93</v>
       </c>
-      <c r="I84" s="4">
-        <v>185</v>
-      </c>
-      <c r="J84" s="1">
+      <c r="I84" s="7">
+        <v>34851</v>
+      </c>
+      <c r="J84" s="5">
+        <v>513589</v>
+      </c>
+      <c r="K84" s="1">
         <v>7.08</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>17</v>
       </c>
@@ -5234,14 +5524,17 @@
       <c r="H85" s="3">
         <v>11.98</v>
       </c>
-      <c r="I85" s="4">
-        <v>174</v>
-      </c>
-      <c r="J85" s="1">
+      <c r="I85" s="7">
+        <v>34681</v>
+      </c>
+      <c r="J85" s="5">
+        <v>513589</v>
+      </c>
+      <c r="K85" s="1">
         <v>6.73</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>17</v>
       </c>
@@ -5267,14 +5560,17 @@
       <c r="H86" s="3">
         <v>12.31</v>
       </c>
-      <c r="I86" s="4">
-        <v>174</v>
-      </c>
-      <c r="J86" s="1">
+      <c r="I86" s="7">
+        <v>32341</v>
+      </c>
+      <c r="J86" s="5">
+        <v>130000</v>
+      </c>
+      <c r="K86" s="1">
         <v>6.25</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>17</v>
       </c>
@@ -5299,14 +5595,17 @@
       <c r="H87" s="3">
         <v>12.38</v>
       </c>
-      <c r="I87" s="4">
-        <v>165</v>
-      </c>
-      <c r="J87" s="1">
+      <c r="I87" s="7">
+        <v>32341</v>
+      </c>
+      <c r="J87" s="5">
+        <v>130000</v>
+      </c>
+      <c r="K87" s="1">
         <v>5.97</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>17</v>
       </c>
@@ -5331,14 +5630,17 @@
       <c r="H88" s="3">
         <v>12.44</v>
       </c>
-      <c r="I88" s="4">
-        <v>157</v>
-      </c>
-      <c r="J88" s="1">
+      <c r="I88" s="7">
+        <v>32341</v>
+      </c>
+      <c r="J88" s="5">
+        <v>130000</v>
+      </c>
+      <c r="K88" s="1">
         <v>6.65</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>17</v>
       </c>
@@ -5363,14 +5665,17 @@
       <c r="H89" s="3">
         <v>12.5</v>
       </c>
-      <c r="I89" s="4">
-        <v>150</v>
-      </c>
-      <c r="J89" s="1">
+      <c r="I89" s="7">
+        <v>32341</v>
+      </c>
+      <c r="J89" s="5">
+        <v>130000</v>
+      </c>
+      <c r="K89" s="1">
         <v>5.9</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -5395,14 +5700,17 @@
       <c r="H90" s="3">
         <v>36.369954030000002</v>
       </c>
-      <c r="I90" s="4">
-        <v>529</v>
-      </c>
-      <c r="J90" s="1">
+      <c r="I90" s="7">
+        <v>306004</v>
+      </c>
+      <c r="J90" s="5">
+        <v>130000</v>
+      </c>
+      <c r="K90" s="1">
         <v>6.23</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>10</v>
       </c>
@@ -5427,14 +5735,17 @@
       <c r="H91" s="3">
         <v>36.810117069999997</v>
       </c>
-      <c r="I91" s="4">
-        <v>528</v>
-      </c>
-      <c r="J91" s="1">
+      <c r="I91" s="7">
+        <v>306004</v>
+      </c>
+      <c r="J91" s="5">
+        <v>102906</v>
+      </c>
+      <c r="K91" s="1">
         <v>6.21</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>10</v>
       </c>
@@ -5459,14 +5770,17 @@
       <c r="H92" s="3">
         <v>37.225625389999998</v>
       </c>
-      <c r="I92" s="4">
-        <v>566</v>
-      </c>
-      <c r="J92" s="1">
+      <c r="I92" s="7">
+        <v>306004</v>
+      </c>
+      <c r="J92" s="5">
+        <v>102906</v>
+      </c>
+      <c r="K92" s="1">
         <v>6.19</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>10</v>
       </c>
@@ -5491,14 +5805,17 @@
       <c r="H93" s="3">
         <v>37.6</v>
       </c>
-      <c r="I93" s="4">
-        <v>560</v>
-      </c>
-      <c r="J93" s="1">
+      <c r="I93" s="7">
+        <v>309197</v>
+      </c>
+      <c r="J93" s="5">
+        <v>102906</v>
+      </c>
+      <c r="K93" s="1">
         <v>6.16</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>10</v>
       </c>
@@ -5523,14 +5840,17 @@
       <c r="H94" s="3">
         <v>38.11</v>
       </c>
-      <c r="I94" s="4">
-        <v>542</v>
-      </c>
-      <c r="J94" s="1">
+      <c r="I94" s="7">
+        <v>309194</v>
+      </c>
+      <c r="J94" s="5">
+        <v>102906</v>
+      </c>
+      <c r="K94" s="1">
         <v>6.09</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>10</v>
       </c>
@@ -5555,14 +5875,17 @@
       <c r="H95" s="3">
         <v>38.64</v>
       </c>
-      <c r="I95" s="4">
-        <v>521</v>
-      </c>
-      <c r="J95" s="1">
+      <c r="I95" s="7">
+        <v>313489</v>
+      </c>
+      <c r="J95" s="5">
+        <v>102906</v>
+      </c>
+      <c r="K95" s="1">
         <v>6.68</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>10</v>
       </c>
@@ -5587,14 +5910,17 @@
       <c r="H96" s="3">
         <v>39.11</v>
       </c>
-      <c r="I96" s="4">
-        <v>494</v>
-      </c>
-      <c r="J96" s="1">
+      <c r="I96" s="7">
+        <v>316464</v>
+      </c>
+      <c r="J96" s="5">
+        <v>102906</v>
+      </c>
+      <c r="K96" s="1">
         <v>6.92</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>10</v>
       </c>
@@ -5620,14 +5946,17 @@
       <c r="H97" s="3">
         <v>37.93</v>
       </c>
-      <c r="I97" s="4">
-        <v>478</v>
-      </c>
-      <c r="J97" s="1">
+      <c r="I97" s="7">
+        <v>316464</v>
+      </c>
+      <c r="J97" s="5">
+        <v>102906</v>
+      </c>
+      <c r="K97" s="1">
         <v>6.77</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>10</v>
       </c>
@@ -5652,14 +5981,17 @@
       <c r="H98" s="3">
         <v>38.67</v>
       </c>
-      <c r="I98" s="4">
-        <v>453</v>
-      </c>
-      <c r="J98" s="1">
+      <c r="I98" s="7">
+        <v>318643</v>
+      </c>
+      <c r="J98" s="5">
+        <v>568760</v>
+      </c>
+      <c r="K98" s="1">
         <v>7.01</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>10</v>
       </c>
@@ -5684,14 +6016,17 @@
       <c r="H99" s="3">
         <v>39.46</v>
       </c>
-      <c r="I99" s="4">
-        <v>405</v>
-      </c>
-      <c r="J99" s="1">
+      <c r="I99" s="7">
+        <v>318643</v>
+      </c>
+      <c r="J99" s="5">
+        <v>568760</v>
+      </c>
+      <c r="K99" s="1">
         <v>6.74</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>10</v>
       </c>
@@ -5716,14 +6051,17 @@
       <c r="H100" s="3">
         <v>40.200000000000003</v>
       </c>
-      <c r="I100" s="4">
-        <v>364</v>
-      </c>
-      <c r="J100" s="1">
+      <c r="I100" s="7">
+        <v>380007</v>
+      </c>
+      <c r="J100" s="5">
+        <v>568760</v>
+      </c>
+      <c r="K100" s="1">
         <v>6.65</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>9</v>
       </c>
@@ -5748,14 +6086,17 @@
       <c r="H101" s="3">
         <v>23.453192789999999</v>
       </c>
-      <c r="I101" s="4">
-        <v>297</v>
-      </c>
-      <c r="J101" s="1">
+      <c r="I101" s="3">
+        <v>29280</v>
+      </c>
+      <c r="J101" s="5">
+        <v>568760</v>
+      </c>
+      <c r="K101" s="1">
         <v>6.49</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>9</v>
       </c>
@@ -5780,14 +6121,17 @@
       <c r="H102" s="3">
         <v>23.628014100000001</v>
       </c>
-      <c r="I102" s="4">
-        <v>303</v>
-      </c>
-      <c r="J102" s="1">
+      <c r="I102" s="3">
+        <v>29280</v>
+      </c>
+      <c r="J102" s="5">
+        <v>568760</v>
+      </c>
+      <c r="K102" s="1">
         <v>6.77</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>9</v>
       </c>
@@ -5812,14 +6156,17 @@
       <c r="H103" s="3">
         <v>23.84344274</v>
       </c>
-      <c r="I103" s="4">
-        <v>296</v>
-      </c>
-      <c r="J103" s="1">
+      <c r="I103" s="3">
+        <v>29280</v>
+      </c>
+      <c r="J103" s="5">
+        <v>589023</v>
+      </c>
+      <c r="K103" s="1">
         <v>5.57</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>9</v>
       </c>
@@ -5844,14 +6191,17 @@
       <c r="H104" s="3">
         <v>24.09</v>
       </c>
-      <c r="I104" s="4">
-        <v>299</v>
-      </c>
-      <c r="J104" s="1">
+      <c r="I104" s="3">
+        <v>29280</v>
+      </c>
+      <c r="J104" s="5">
+        <v>589023</v>
+      </c>
+      <c r="K104" s="1">
         <v>5.47</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>9</v>
       </c>
@@ -5876,14 +6226,17 @@
       <c r="H105" s="3">
         <v>24.42</v>
       </c>
-      <c r="I105" s="4">
-        <v>296</v>
-      </c>
-      <c r="J105" s="1">
+      <c r="I105" s="3">
+        <v>29280</v>
+      </c>
+      <c r="J105" s="5">
+        <v>589023</v>
+      </c>
+      <c r="K105" s="1">
         <v>6.03</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>9</v>
       </c>
@@ -5908,14 +6261,17 @@
       <c r="H106" s="3">
         <v>24.59</v>
       </c>
-      <c r="I106" s="4">
-        <v>280</v>
-      </c>
-      <c r="J106" s="1">
+      <c r="I106" s="3">
+        <v>29280</v>
+      </c>
+      <c r="J106" s="5">
+        <v>590480</v>
+      </c>
+      <c r="K106" s="1">
         <v>6.19</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>9</v>
       </c>
@@ -5940,14 +6296,17 @@
       <c r="H107" s="3">
         <v>24.81</v>
       </c>
-      <c r="I107" s="4">
-        <v>265</v>
-      </c>
-      <c r="J107" s="1">
+      <c r="I107" s="3">
+        <v>29280</v>
+      </c>
+      <c r="J107" s="5">
+        <v>590480</v>
+      </c>
+      <c r="K107" s="1">
         <v>5.23</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>9</v>
       </c>
@@ -5973,14 +6332,17 @@
       <c r="H108" s="3">
         <v>31.5</v>
       </c>
-      <c r="I108" s="4">
-        <v>255</v>
-      </c>
-      <c r="J108" s="1">
+      <c r="I108" s="3">
+        <v>29280</v>
+      </c>
+      <c r="J108" s="5">
+        <v>595751</v>
+      </c>
+      <c r="K108" s="1">
         <v>6.08</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>9</v>
       </c>
@@ -6005,14 +6367,17 @@
       <c r="H109" s="3">
         <v>31.94</v>
       </c>
-      <c r="I109" s="4">
-        <v>243</v>
-      </c>
-      <c r="J109" s="1">
+      <c r="I109" s="3">
+        <v>29280</v>
+      </c>
+      <c r="J109" s="5">
+        <v>589023</v>
+      </c>
+      <c r="K109" s="1">
         <v>6.43</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>9</v>
       </c>
@@ -6037,14 +6402,17 @@
       <c r="H110" s="3">
         <v>32.520000000000003</v>
       </c>
-      <c r="I110" s="4">
-        <v>229</v>
-      </c>
-      <c r="J110" s="1">
+      <c r="I110" s="3">
+        <v>29280</v>
+      </c>
+      <c r="J110" s="5">
+        <v>300000</v>
+      </c>
+      <c r="K110" s="1">
         <v>5.78</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>9</v>
       </c>
@@ -6069,14 +6437,17 @@
       <c r="H111" s="3">
         <v>31.94</v>
       </c>
-      <c r="I111" s="4">
-        <v>210</v>
-      </c>
-      <c r="J111" s="1">
+      <c r="I111" s="3">
+        <v>29280</v>
+      </c>
+      <c r="J111" s="5">
+        <v>300000</v>
+      </c>
+      <c r="K111" s="1">
         <v>6.17</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -6101,14 +6472,17 @@
       <c r="H112" s="3">
         <v>0.32716624999999999</v>
       </c>
-      <c r="I112" s="4">
-        <v>222</v>
-      </c>
-      <c r="J112" s="1">
+      <c r="I112" s="9">
+        <v>70564</v>
+      </c>
+      <c r="J112" s="5">
+        <v>300000</v>
+      </c>
+      <c r="K112" s="1">
         <v>6.26</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -6133,14 +6507,17 @@
       <c r="H113" s="3">
         <v>0.32832994999999998</v>
       </c>
-      <c r="I113" s="4">
-        <v>223</v>
-      </c>
-      <c r="J113" s="1">
+      <c r="I113" s="9">
+        <v>70581</v>
+      </c>
+      <c r="J113" s="5">
+        <v>300000</v>
+      </c>
+      <c r="K113" s="1">
         <v>6.12</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -6165,14 +6542,17 @@
       <c r="H114" s="3">
         <v>0.33034372299999998</v>
       </c>
-      <c r="I114" s="4">
-        <v>226</v>
-      </c>
-      <c r="J114" s="1">
+      <c r="I114" s="9">
+        <v>70581</v>
+      </c>
+      <c r="J114" s="5">
+        <v>300000</v>
+      </c>
+      <c r="K114" s="1">
         <v>6.18</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -6197,14 +6577,17 @@
       <c r="H115" s="3">
         <v>0.33</v>
       </c>
-      <c r="I115" s="4">
-        <v>228</v>
-      </c>
-      <c r="J115" s="1">
+      <c r="I115" s="9">
+        <v>70581</v>
+      </c>
+      <c r="J115" s="5">
+        <v>244894</v>
+      </c>
+      <c r="K115" s="1">
         <v>6.15</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>5</v>
       </c>
@@ -6229,14 +6612,17 @@
       <c r="H116" s="3">
         <v>1.06</v>
       </c>
-      <c r="I116" s="4">
-        <v>233</v>
-      </c>
-      <c r="J116" s="1">
+      <c r="I116" s="9">
+        <v>72802</v>
+      </c>
+      <c r="J116" s="5">
+        <v>244894</v>
+      </c>
+      <c r="K116" s="1">
         <v>6.41</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>5</v>
       </c>
@@ -6261,14 +6647,17 @@
       <c r="H117" s="3">
         <v>1.07</v>
       </c>
-      <c r="I117" s="4">
-        <v>232</v>
-      </c>
-      <c r="J117" s="1">
+      <c r="I117" s="9">
+        <v>72802</v>
+      </c>
+      <c r="J117" s="5">
+        <v>239431</v>
+      </c>
+      <c r="K117" s="1">
         <v>6.13</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -6293,14 +6682,17 @@
       <c r="H118" s="3">
         <v>1.08</v>
       </c>
-      <c r="I118" s="4">
-        <v>231</v>
-      </c>
-      <c r="J118" s="1">
+      <c r="I118" s="9">
+        <v>72802</v>
+      </c>
+      <c r="J118" s="5">
+        <v>239431</v>
+      </c>
+      <c r="K118" s="1">
         <v>6.32</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>5</v>
       </c>
@@ -6326,14 +6718,17 @@
       <c r="H119" s="3">
         <v>1.0900000000000001</v>
       </c>
-      <c r="I119" s="4">
-        <v>228</v>
-      </c>
-      <c r="J119" s="1">
+      <c r="I119" s="9">
+        <v>72802</v>
+      </c>
+      <c r="J119" s="5">
+        <v>239431</v>
+      </c>
+      <c r="K119" s="1">
         <v>5.83</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>5</v>
       </c>
@@ -6358,14 +6753,17 @@
       <c r="H120" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I120" s="4">
-        <v>224</v>
-      </c>
-      <c r="J120" s="1">
+      <c r="I120" s="9">
+        <v>72802</v>
+      </c>
+      <c r="J120" s="5">
+        <v>239431</v>
+      </c>
+      <c r="K120" s="1">
         <v>5.7</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>5</v>
       </c>
@@ -6390,14 +6788,17 @@
       <c r="H121" s="3">
         <v>1.1100000000000001</v>
       </c>
-      <c r="I121" s="4">
-        <v>215</v>
-      </c>
-      <c r="J121" s="1">
+      <c r="I121" s="9">
+        <v>72802</v>
+      </c>
+      <c r="J121" s="5">
+        <v>239431</v>
+      </c>
+      <c r="K121" s="1">
         <v>6.37</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -6422,14 +6823,17 @@
       <c r="H122" s="3">
         <v>1.1200000000000001</v>
       </c>
-      <c r="I122" s="4">
-        <v>201</v>
-      </c>
-      <c r="J122" s="1">
+      <c r="I122" s="9">
+        <v>53843</v>
+      </c>
+      <c r="J122" s="5">
+        <v>857232</v>
+      </c>
+      <c r="K122" s="1">
         <v>6.08</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>19</v>
       </c>
@@ -6454,14 +6858,17 @@
       <c r="H123" s="3">
         <v>1.7382278520000001</v>
       </c>
-      <c r="I123" s="4">
-        <v>189</v>
-      </c>
-      <c r="J123" s="1">
+      <c r="I123" s="3">
+        <v>24191</v>
+      </c>
+      <c r="J123" s="5">
+        <v>857232</v>
+      </c>
+      <c r="K123" s="1">
         <v>6.85</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>19</v>
       </c>
@@ -6486,14 +6893,17 @@
       <c r="H124" s="3">
         <v>1.7438616069999999</v>
       </c>
-      <c r="I124" s="4">
-        <v>205</v>
-      </c>
-      <c r="J124" s="1">
+      <c r="I124" s="3">
+        <v>24191</v>
+      </c>
+      <c r="J124" s="5">
+        <v>875352</v>
+      </c>
+      <c r="K124" s="1">
         <v>6.35</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>19</v>
       </c>
@@ -6518,14 +6928,17 @@
       <c r="H125" s="3">
         <v>1.7263021869999999</v>
       </c>
-      <c r="I125" s="4">
-        <v>230</v>
-      </c>
-      <c r="J125" s="1">
+      <c r="I125" s="3">
+        <v>24191</v>
+      </c>
+      <c r="J125" s="5">
+        <v>875352</v>
+      </c>
+      <c r="K125" s="1">
         <v>5.96</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>19</v>
       </c>
@@ -6550,14 +6963,17 @@
       <c r="H126" s="3">
         <v>1.7</v>
       </c>
-      <c r="I126" s="4">
-        <v>239</v>
-      </c>
-      <c r="J126" s="1">
+      <c r="I126" s="3">
+        <v>24191</v>
+      </c>
+      <c r="J126" s="5">
+        <v>870279</v>
+      </c>
+      <c r="K126" s="1">
         <v>6.25</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>19</v>
       </c>
@@ -6582,14 +6998,17 @@
       <c r="H127" s="3">
         <v>1.72</v>
       </c>
-      <c r="I127" s="4">
-        <v>238</v>
-      </c>
-      <c r="J127" s="1">
+      <c r="I127" s="3">
+        <v>37589</v>
+      </c>
+      <c r="J127" s="5">
+        <v>745441</v>
+      </c>
+      <c r="K127" s="1">
         <v>6.48</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>19</v>
       </c>
@@ -6614,14 +7033,17 @@
       <c r="H128" s="3">
         <v>5.62</v>
       </c>
-      <c r="I128" s="4">
-        <v>241</v>
-      </c>
-      <c r="J128" s="1">
+      <c r="I128" s="3">
+        <v>37589</v>
+      </c>
+      <c r="J128" s="5">
+        <v>745441</v>
+      </c>
+      <c r="K128" s="1">
         <v>5.96</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>19</v>
       </c>
@@ -6646,14 +7068,17 @@
       <c r="H129" s="3">
         <v>5.62</v>
       </c>
-      <c r="I129" s="4">
-        <v>235</v>
-      </c>
-      <c r="J129" s="1">
+      <c r="I129" s="3">
+        <v>37589</v>
+      </c>
+      <c r="J129" s="5">
+        <v>745441</v>
+      </c>
+      <c r="K129" s="1">
         <v>5.5</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>19</v>
       </c>
@@ -6679,14 +7104,17 @@
       <c r="H130" s="3">
         <v>5.68</v>
       </c>
-      <c r="I130" s="4">
-        <v>230</v>
-      </c>
-      <c r="J130" s="1">
+      <c r="I130" s="3">
+        <v>37751</v>
+      </c>
+      <c r="J130" s="5">
+        <v>745441</v>
+      </c>
+      <c r="K130" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>19</v>
       </c>
@@ -6711,14 +7139,17 @@
       <c r="H131" s="3">
         <v>5.68</v>
       </c>
-      <c r="I131" s="4">
-        <v>225</v>
-      </c>
-      <c r="J131" s="1">
+      <c r="I131" s="3">
+        <v>38051</v>
+      </c>
+      <c r="J131" s="5">
+        <v>745441</v>
+      </c>
+      <c r="K131" s="1">
         <v>6.28</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>19</v>
       </c>
@@ -6743,14 +7174,17 @@
       <c r="H132" s="3">
         <v>5.69</v>
       </c>
-      <c r="I132" s="4">
-        <v>219</v>
-      </c>
-      <c r="J132" s="1">
+      <c r="I132" s="3">
+        <v>37370</v>
+      </c>
+      <c r="J132" s="5">
+        <v>745441</v>
+      </c>
+      <c r="K132" s="1">
         <v>5.54</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>19</v>
       </c>
@@ -6775,14 +7209,17 @@
       <c r="H133" s="3">
         <v>5.76</v>
       </c>
-      <c r="I133" s="4">
-        <v>206</v>
-      </c>
-      <c r="J133" s="1">
+      <c r="I133" s="3">
+        <v>37370</v>
+      </c>
+      <c r="J133" s="5">
+        <v>745441</v>
+      </c>
+      <c r="K133" s="1">
         <v>6.24</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>13</v>
       </c>
@@ -6807,14 +7244,17 @@
       <c r="H134" s="3">
         <v>28.532012300000002</v>
       </c>
-      <c r="I134" s="4">
-        <v>197</v>
-      </c>
-      <c r="J134" s="1">
+      <c r="I134" s="3">
+        <v>672644</v>
+      </c>
+      <c r="J134" s="5">
+        <v>193203</v>
+      </c>
+      <c r="K134" s="1">
         <v>6.29</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>13</v>
       </c>
@@ -6839,14 +7279,17 @@
       <c r="H135" s="3">
         <v>28.705773919999999</v>
       </c>
-      <c r="I135" s="4">
-        <v>202</v>
-      </c>
-      <c r="J135" s="1">
+      <c r="I135" s="3">
+        <v>677951</v>
+      </c>
+      <c r="J135" s="5">
+        <v>193203</v>
+      </c>
+      <c r="K135" s="1">
         <v>6.16</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>13</v>
       </c>
@@ -6871,14 +7314,17 @@
       <c r="H136" s="3">
         <v>29.067652169999999</v>
       </c>
-      <c r="I136" s="4">
-        <v>226</v>
-      </c>
-      <c r="J136" s="1">
+      <c r="I136" s="3">
+        <v>679691</v>
+      </c>
+      <c r="J136" s="5">
+        <v>191785</v>
+      </c>
+      <c r="K136" s="1">
         <v>6.41</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>13</v>
       </c>
@@ -6903,14 +7349,17 @@
       <c r="H137" s="3">
         <v>29.28</v>
       </c>
-      <c r="I137" s="4">
-        <v>239</v>
-      </c>
-      <c r="J137" s="1">
+      <c r="I137" s="3">
+        <v>679691</v>
+      </c>
+      <c r="J137" s="5">
+        <v>191785</v>
+      </c>
+      <c r="K137" s="1">
         <v>5.99</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>13</v>
       </c>
@@ -6935,14 +7384,17 @@
       <c r="H138" s="3">
         <v>29.01</v>
       </c>
-      <c r="I138" s="4">
-        <v>244</v>
-      </c>
-      <c r="J138" s="1">
+      <c r="I138" s="3">
+        <v>679691</v>
+      </c>
+      <c r="J138" s="5">
+        <v>191785</v>
+      </c>
+      <c r="K138" s="1">
         <v>6.32</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>13</v>
       </c>
@@ -6967,14 +7419,17 @@
       <c r="H139" s="3">
         <v>28.84</v>
       </c>
-      <c r="I139" s="4">
-        <v>244</v>
-      </c>
-      <c r="J139" s="1">
+      <c r="I139" s="3">
+        <v>319655</v>
+      </c>
+      <c r="J139" s="5">
+        <v>267548</v>
+      </c>
+      <c r="K139" s="1">
         <v>5.93</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>13</v>
       </c>
@@ -6999,14 +7454,17 @@
       <c r="H140" s="3">
         <v>25.16</v>
       </c>
-      <c r="I140" s="4">
-        <v>228</v>
-      </c>
-      <c r="J140" s="1">
+      <c r="I140" s="3">
+        <v>319655</v>
+      </c>
+      <c r="J140" s="5">
+        <v>267548</v>
+      </c>
+      <c r="K140" s="1">
         <v>6.26</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>13</v>
       </c>
@@ -7032,14 +7490,17 @@
       <c r="H141" s="3">
         <v>25.49</v>
       </c>
-      <c r="I141" s="4">
-        <v>213</v>
-      </c>
-      <c r="J141" s="1">
+      <c r="I141" s="3">
+        <v>319655</v>
+      </c>
+      <c r="J141" s="5">
+        <v>267548</v>
+      </c>
+      <c r="K141" s="1">
         <v>6.27</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>13</v>
       </c>
@@ -7064,14 +7525,17 @@
       <c r="H142" s="3">
         <v>25.49</v>
       </c>
-      <c r="I142" s="4">
-        <v>210</v>
-      </c>
-      <c r="J142" s="1">
+      <c r="I142" s="3">
+        <v>319655</v>
+      </c>
+      <c r="J142" s="5">
+        <v>267548</v>
+      </c>
+      <c r="K142" s="1">
         <v>6.31</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>13</v>
       </c>
@@ -7096,14 +7560,17 @@
       <c r="H143" s="3">
         <v>25.56</v>
       </c>
-      <c r="I143" s="4">
-        <v>209</v>
-      </c>
-      <c r="J143" s="1">
+      <c r="I143" s="3">
+        <v>320959</v>
+      </c>
+      <c r="J143" s="5">
+        <v>267548</v>
+      </c>
+      <c r="K143" s="1">
         <v>6.19</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>13</v>
       </c>
@@ -7128,14 +7595,17 @@
       <c r="H144" s="3">
         <v>25.71</v>
       </c>
-      <c r="I144" s="4">
-        <v>204</v>
-      </c>
-      <c r="J144" s="1">
+      <c r="I144" s="3">
+        <v>160777</v>
+      </c>
+      <c r="J144" s="5">
+        <v>268974</v>
+      </c>
+      <c r="K144" s="1">
         <v>6.33</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>12</v>
       </c>
@@ -7160,14 +7630,17 @@
       <c r="H145" s="3">
         <v>5.8407289059999998</v>
       </c>
-      <c r="I145" s="4">
-        <v>172</v>
-      </c>
-      <c r="J145" s="1">
+      <c r="I145" s="3">
+        <v>474260</v>
+      </c>
+      <c r="J145" s="5">
+        <v>267548</v>
+      </c>
+      <c r="K145" s="1">
         <v>6.26</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>12</v>
       </c>
@@ -7192,14 +7665,17 @@
       <c r="H146" s="3">
         <v>6.0204667589999996</v>
       </c>
-      <c r="I146" s="4">
-        <v>167</v>
-      </c>
-      <c r="J146" s="1">
+      <c r="I146" s="3">
+        <v>478642</v>
+      </c>
+      <c r="J146" s="5">
+        <v>395858</v>
+      </c>
+      <c r="K146" s="1">
         <v>6.1</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>12</v>
       </c>
@@ -7224,14 +7700,17 @@
       <c r="H147" s="3">
         <v>6.0154801610000002</v>
       </c>
-      <c r="I147" s="4">
-        <v>177</v>
-      </c>
-      <c r="J147" s="1">
+      <c r="I147" s="3">
+        <v>484351</v>
+      </c>
+      <c r="J147" s="5">
+        <v>395858</v>
+      </c>
+      <c r="K147" s="1">
         <v>6.19</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
         <v>12</v>
       </c>
@@ -7256,14 +7735,17 @@
       <c r="H148" s="3">
         <v>6.03</v>
       </c>
-      <c r="I148" s="4">
-        <v>179</v>
-      </c>
-      <c r="J148" s="1">
+      <c r="I148" s="3">
+        <v>479864</v>
+      </c>
+      <c r="J148" s="5">
+        <v>395858</v>
+      </c>
+      <c r="K148" s="1">
         <v>6.32</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>12</v>
       </c>
@@ -7288,14 +7770,17 @@
       <c r="H149" s="3">
         <v>6.11</v>
       </c>
-      <c r="I149" s="4">
-        <v>175</v>
-      </c>
-      <c r="J149" s="1">
+      <c r="I149" s="3">
+        <v>475841</v>
+      </c>
+      <c r="J149" s="5">
+        <v>395857</v>
+      </c>
+      <c r="K149" s="1">
         <v>6.23</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>12</v>
       </c>
@@ -7320,14 +7805,17 @@
       <c r="H150" s="3">
         <v>6.07</v>
       </c>
-      <c r="I150" s="4">
-        <v>172</v>
-      </c>
-      <c r="J150" s="1">
+      <c r="I150" s="3">
+        <v>475841</v>
+      </c>
+      <c r="J150" s="5">
+        <v>395858</v>
+      </c>
+      <c r="K150" s="1">
         <v>6.03</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>12</v>
       </c>
@@ -7352,14 +7840,17 @@
       <c r="H151" s="3">
         <v>6.03</v>
       </c>
-      <c r="I151" s="4">
-        <v>159</v>
-      </c>
-      <c r="J151" s="1">
+      <c r="I151" s="3">
+        <v>475841</v>
+      </c>
+      <c r="J151" s="5">
+        <v>753951</v>
+      </c>
+      <c r="K151" s="1">
         <v>6.06</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>12</v>
       </c>
@@ -7385,14 +7876,17 @@
       <c r="H152" s="3">
         <v>6.28</v>
       </c>
-      <c r="I152" s="4">
-        <v>158</v>
-      </c>
-      <c r="J152" s="1">
+      <c r="I152" s="3">
+        <v>475841</v>
+      </c>
+      <c r="J152" s="5">
+        <v>753951</v>
+      </c>
+      <c r="K152" s="1">
         <v>6.11</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>12</v>
       </c>
@@ -7417,14 +7911,17 @@
       <c r="H153" s="3">
         <v>6.33</v>
       </c>
-      <c r="I153" s="4">
-        <v>153</v>
-      </c>
-      <c r="J153" s="1">
+      <c r="I153" s="3">
+        <v>475841</v>
+      </c>
+      <c r="J153" s="5">
+        <v>757236</v>
+      </c>
+      <c r="K153" s="1">
         <v>6.43</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>12</v>
       </c>
@@ -7449,14 +7946,17 @@
       <c r="H154" s="3">
         <v>6.34</v>
       </c>
-      <c r="I154" s="4">
-        <v>149</v>
-      </c>
-      <c r="J154" s="1">
+      <c r="I154" s="3">
+        <v>475841</v>
+      </c>
+      <c r="J154" s="5">
+        <v>757236</v>
+      </c>
+      <c r="K154" s="1">
         <v>5.98</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>12</v>
       </c>
@@ -7481,14 +7981,17 @@
       <c r="H155" s="3">
         <v>6.29</v>
       </c>
-      <c r="I155" s="4">
-        <v>143</v>
-      </c>
-      <c r="J155" s="1">
+      <c r="I155" s="3">
+        <v>442285</v>
+      </c>
+      <c r="J155" s="5">
+        <v>757236</v>
+      </c>
+      <c r="K155" s="1">
         <v>6.09</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>21</v>
       </c>
@@ -7513,14 +8016,17 @@
       <c r="H156" s="3">
         <v>63.286823699999999</v>
       </c>
-      <c r="I156" s="4">
-        <v>152</v>
-      </c>
-      <c r="J156" s="1">
+      <c r="I156" s="3">
+        <v>768733</v>
+      </c>
+      <c r="J156" s="5">
+        <v>757236</v>
+      </c>
+      <c r="K156" s="1">
         <v>6.01</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>21</v>
       </c>
@@ -7545,14 +8051,17 @@
       <c r="H157" s="3">
         <v>63.455563650000002</v>
       </c>
-      <c r="I157" s="4">
-        <v>163</v>
-      </c>
-      <c r="J157" s="1">
+      <c r="I157" s="3">
+        <v>768733</v>
+      </c>
+      <c r="J157" s="5">
+        <v>757236</v>
+      </c>
+      <c r="K157" s="1">
         <v>6.13</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>21</v>
       </c>
@@ -7577,14 +8086,17 @@
       <c r="H158" s="3">
         <v>63.239690699999997</v>
       </c>
-      <c r="I158" s="4">
-        <v>182</v>
-      </c>
-      <c r="J158" s="1">
+      <c r="I158" s="3">
+        <v>768733</v>
+      </c>
+      <c r="J158" s="5">
+        <v>200050</v>
+      </c>
+      <c r="K158" s="1">
         <v>5.77</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>21</v>
       </c>
@@ -7609,14 +8121,17 @@
       <c r="H159" s="3">
         <v>62.28</v>
       </c>
-      <c r="I159" s="4">
-        <v>201</v>
-      </c>
-      <c r="J159" s="1">
+      <c r="I159" s="3">
+        <v>768733</v>
+      </c>
+      <c r="J159" s="5">
+        <v>200050</v>
+      </c>
+      <c r="K159" s="1">
         <v>6.05</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
         <v>21</v>
       </c>
@@ -7641,14 +8156,17 @@
       <c r="H160" s="3">
         <v>61.18</v>
       </c>
-      <c r="I160" s="4">
-        <v>206</v>
-      </c>
-      <c r="J160" s="1">
+      <c r="I160" s="3">
+        <v>768733</v>
+      </c>
+      <c r="J160" s="5">
+        <v>200050</v>
+      </c>
+      <c r="K160" s="1">
         <v>5.94</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>21</v>
       </c>
@@ -7673,14 +8191,17 @@
       <c r="H161" s="3">
         <v>61.58</v>
       </c>
-      <c r="I161" s="4">
-        <v>209</v>
-      </c>
-      <c r="J161" s="1">
+      <c r="I161" s="3">
+        <v>922978</v>
+      </c>
+      <c r="J161" s="5">
+        <v>200050</v>
+      </c>
+      <c r="K161" s="1">
         <v>6.25</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>21</v>
       </c>
@@ -7705,14 +8226,17 @@
       <c r="H162" s="3">
         <v>59.72</v>
       </c>
-      <c r="I162" s="4">
-        <v>201</v>
-      </c>
-      <c r="J162" s="1">
+      <c r="I162" s="3">
+        <v>922978</v>
+      </c>
+      <c r="J162" s="5">
+        <v>200050</v>
+      </c>
+      <c r="K162" s="1">
         <v>6.14</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>21</v>
       </c>
@@ -7738,14 +8262,17 @@
       <c r="H163" s="3">
         <v>60.51</v>
       </c>
-      <c r="I163" s="4">
-        <v>206</v>
-      </c>
-      <c r="J163" s="1">
+      <c r="I163" s="3">
+        <v>916036</v>
+      </c>
+      <c r="J163" s="5">
+        <v>274391</v>
+      </c>
+      <c r="K163" s="1">
         <v>6.41</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>21</v>
       </c>
@@ -7770,14 +8297,17 @@
       <c r="H164" s="3">
         <v>61.51</v>
       </c>
-      <c r="I164" s="4">
-        <v>200</v>
-      </c>
-      <c r="J164" s="1">
+      <c r="I164" s="3">
+        <v>928883</v>
+      </c>
+      <c r="J164" s="5">
+        <v>274391</v>
+      </c>
+      <c r="K164" s="1">
         <v>6.06</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>21</v>
       </c>
@@ -7802,14 +8332,17 @@
       <c r="H165" s="3">
         <v>61.96</v>
       </c>
-      <c r="I165" s="4">
-        <v>189</v>
-      </c>
-      <c r="J165" s="1">
+      <c r="I165" s="3">
+        <v>928883</v>
+      </c>
+      <c r="J165" s="5">
+        <v>274391</v>
+      </c>
+      <c r="K165" s="1">
         <v>5.93</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>21</v>
       </c>
@@ -7834,14 +8367,17 @@
       <c r="H166" s="3">
         <v>62.78</v>
       </c>
-      <c r="I166" s="4">
-        <v>184</v>
-      </c>
-      <c r="J166" s="1">
+      <c r="I166" s="3">
+        <v>928874</v>
+      </c>
+      <c r="J166" s="5">
+        <v>274391</v>
+      </c>
+      <c r="K166" s="1">
         <v>6.02</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>3</v>
       </c>
@@ -7866,14 +8402,17 @@
       <c r="H167" s="3">
         <v>14.54220574</v>
       </c>
-      <c r="I167" s="4">
-        <v>146</v>
-      </c>
-      <c r="J167" s="1">
+      <c r="I167" s="9">
+        <v>284325</v>
+      </c>
+      <c r="J167" s="5">
+        <v>274391</v>
+      </c>
+      <c r="K167" s="1">
         <v>6.13</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>3</v>
       </c>
@@ -7898,14 +8437,17 @@
       <c r="H168" s="3">
         <v>14.453023</v>
       </c>
-      <c r="I168" s="4">
-        <v>157</v>
-      </c>
-      <c r="J168" s="1">
+      <c r="I168" s="9">
+        <v>283650</v>
+      </c>
+      <c r="J168" s="5">
+        <v>274391</v>
+      </c>
+      <c r="K168" s="1">
         <v>6.36</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>3</v>
       </c>
@@ -7930,14 +8472,17 @@
       <c r="H169" s="3">
         <v>14.50642515</v>
       </c>
-      <c r="I169" s="4">
-        <v>176</v>
-      </c>
-      <c r="J169" s="1">
+      <c r="I169" s="9">
+        <v>283650</v>
+      </c>
+      <c r="J169" s="5">
+        <v>274391</v>
+      </c>
+      <c r="K169" s="1">
         <v>6.24</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
         <v>3</v>
       </c>
@@ -7962,14 +8507,17 @@
       <c r="H170" s="3">
         <v>14.52</v>
       </c>
-      <c r="I170" s="4">
-        <v>190</v>
-      </c>
-      <c r="J170" s="1">
+      <c r="I170" s="9">
+        <v>283653</v>
+      </c>
+      <c r="J170" s="5">
+        <v>1340154</v>
+      </c>
+      <c r="K170" s="1">
         <v>6.11</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
         <v>3</v>
       </c>
@@ -7994,14 +8542,17 @@
       <c r="H171" s="3">
         <v>14.68</v>
       </c>
-      <c r="I171" s="4">
-        <v>194</v>
-      </c>
-      <c r="J171" s="1">
+      <c r="I171" s="9">
+        <v>35588</v>
+      </c>
+      <c r="J171" s="5">
+        <v>1340154</v>
+      </c>
+      <c r="K171" s="1">
         <v>6.25</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
         <v>3</v>
       </c>
@@ -8026,14 +8577,17 @@
       <c r="H172" s="3">
         <v>14.63</v>
       </c>
-      <c r="I172" s="4">
-        <v>192</v>
-      </c>
-      <c r="J172" s="1">
+      <c r="I172" s="9">
+        <v>35588</v>
+      </c>
+      <c r="J172" s="5">
+        <v>1340154</v>
+      </c>
+      <c r="K172" s="1">
         <v>6.2</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
         <v>3</v>
       </c>
@@ -8058,14 +8612,17 @@
       <c r="H173" s="3">
         <v>14.52</v>
       </c>
-      <c r="I173" s="4">
-        <v>189</v>
-      </c>
-      <c r="J173" s="1">
+      <c r="I173" s="9">
+        <v>35588</v>
+      </c>
+      <c r="J173" s="5">
+        <v>1340154</v>
+      </c>
+      <c r="K173" s="1">
         <v>6.5</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
         <v>3</v>
       </c>
@@ -8091,14 +8648,17 @@
       <c r="H174" s="3">
         <v>14.21</v>
       </c>
-      <c r="I174" s="4">
-        <v>190</v>
-      </c>
-      <c r="J174" s="1">
+      <c r="I174" s="9">
+        <v>35588</v>
+      </c>
+      <c r="J174" s="5">
+        <v>1340154</v>
+      </c>
+      <c r="K174" s="1">
         <v>6.33</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
         <v>3</v>
       </c>
@@ -8123,14 +8683,17 @@
       <c r="H175" s="3">
         <v>14.06</v>
       </c>
-      <c r="I175" s="4">
-        <v>187</v>
-      </c>
-      <c r="J175" s="1">
+      <c r="I175" s="9">
+        <v>35588</v>
+      </c>
+      <c r="J175" s="5">
+        <v>1317259</v>
+      </c>
+      <c r="K175" s="1">
         <v>6.26</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
         <v>3</v>
       </c>
@@ -8155,14 +8718,17 @@
       <c r="H176" s="3">
         <v>14.4</v>
       </c>
-      <c r="I176" s="4">
-        <v>179</v>
-      </c>
-      <c r="J176" s="1">
+      <c r="I176" s="9">
+        <v>35588</v>
+      </c>
+      <c r="J176" s="5">
+        <v>1317259</v>
+      </c>
+      <c r="K176" s="1">
         <v>6.33</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
         <v>3</v>
       </c>
@@ -8187,14 +8753,17 @@
       <c r="H177" s="3">
         <v>14.76</v>
       </c>
-      <c r="I177" s="4">
-        <v>173</v>
-      </c>
-      <c r="J177" s="1">
+      <c r="I177" s="9">
+        <v>35588</v>
+      </c>
+      <c r="J177" s="5">
+        <v>1320064</v>
+      </c>
+      <c r="K177" s="1">
         <v>5.97</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
         <v>7</v>
       </c>
@@ -8219,14 +8788,17 @@
       <c r="H178" s="3">
         <v>13.42580972</v>
       </c>
-      <c r="I178" s="4">
-        <v>326</v>
-      </c>
-      <c r="J178" s="1">
+      <c r="I178" s="9">
+        <v>73865</v>
+      </c>
+      <c r="J178" s="5">
+        <v>1322182</v>
+      </c>
+      <c r="K178" s="1">
         <v>6.07</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
         <v>7</v>
       </c>
@@ -8251,14 +8823,17 @@
       <c r="H179" s="3">
         <v>13.52988534</v>
       </c>
-      <c r="I179" s="4">
-        <v>319</v>
-      </c>
-      <c r="J179" s="1">
+      <c r="I179" s="9">
+        <v>73865</v>
+      </c>
+      <c r="J179" s="5">
+        <v>1322182</v>
+      </c>
+      <c r="K179" s="1">
         <v>5.86</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
         <v>7</v>
       </c>
@@ -8283,14 +8858,17 @@
       <c r="H180" s="3">
         <v>13.622937930000001</v>
       </c>
-      <c r="I180" s="4">
-        <v>319</v>
-      </c>
-      <c r="J180" s="1">
+      <c r="I180" s="9">
+        <v>73865</v>
+      </c>
+      <c r="J180" s="5">
+        <v>1322182</v>
+      </c>
+      <c r="K180" s="1">
         <v>6.02</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
         <v>7</v>
       </c>
@@ -8315,14 +8893,17 @@
       <c r="H181" s="3">
         <v>13.77</v>
       </c>
-      <c r="I181" s="4">
-        <v>330</v>
-      </c>
-      <c r="J181" s="1">
+      <c r="I181" s="9">
+        <v>73865</v>
+      </c>
+      <c r="J181" s="5">
+        <v>1320064</v>
+      </c>
+      <c r="K181" s="1">
         <v>6.11</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
         <v>7</v>
       </c>
@@ -8347,14 +8928,17 @@
       <c r="H182" s="3">
         <v>14.07</v>
       </c>
-      <c r="I182" s="4">
-        <v>338</v>
-      </c>
-      <c r="J182" s="1">
+      <c r="I182" s="9">
+        <v>73865</v>
+      </c>
+      <c r="J182" s="5">
+        <v>208841</v>
+      </c>
+      <c r="K182" s="1">
         <v>5.97</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
         <v>7</v>
       </c>
@@ -8379,14 +8963,17 @@
       <c r="H183" s="3">
         <v>14.29</v>
       </c>
-      <c r="I183" s="4">
-        <v>329</v>
-      </c>
-      <c r="J183" s="1">
+      <c r="I183" s="9">
+        <v>73865</v>
+      </c>
+      <c r="J183" s="5">
+        <v>208841</v>
+      </c>
+      <c r="K183" s="1">
         <v>6.04</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
         <v>7</v>
       </c>
@@ -8411,14 +8998,17 @@
       <c r="H184" s="3">
         <v>14.58</v>
       </c>
-      <c r="I184" s="4">
-        <v>310</v>
-      </c>
-      <c r="J184" s="1">
+      <c r="I184" s="9">
+        <v>73865</v>
+      </c>
+      <c r="J184" s="5">
+        <v>208841</v>
+      </c>
+      <c r="K184" s="1">
         <v>5.9</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
         <v>7</v>
       </c>
@@ -8444,14 +9034,17 @@
       <c r="H185" s="3">
         <v>14.49</v>
       </c>
-      <c r="I185" s="4">
-        <v>298</v>
-      </c>
-      <c r="J185" s="1">
+      <c r="I185" s="9">
+        <v>73865</v>
+      </c>
+      <c r="J185" s="5">
+        <v>208841</v>
+      </c>
+      <c r="K185" s="1">
         <v>6.18</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
         <v>7</v>
       </c>
@@ -8476,14 +9069,17 @@
       <c r="H186" s="3">
         <v>14.76</v>
       </c>
-      <c r="I186" s="4">
-        <v>275</v>
-      </c>
-      <c r="J186" s="1">
+      <c r="I186" s="9">
+        <v>73865</v>
+      </c>
+      <c r="J186" s="5">
+        <v>208841</v>
+      </c>
+      <c r="K186" s="1">
         <v>6.34</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
         <v>7</v>
       </c>
@@ -8508,14 +9104,17 @@
       <c r="H187" s="3">
         <v>14.53</v>
       </c>
-      <c r="I187" s="4">
-        <v>267</v>
-      </c>
-      <c r="J187" s="1">
+      <c r="I187" s="9">
+        <v>73865</v>
+      </c>
+      <c r="J187" s="5">
+        <v>397688</v>
+      </c>
+      <c r="K187" s="1">
         <v>6.27</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
         <v>7</v>
       </c>
@@ -8540,14 +9139,17 @@
       <c r="H188" s="3">
         <v>14.72</v>
       </c>
-      <c r="I188" s="4">
-        <v>246</v>
-      </c>
-      <c r="J188" s="1">
+      <c r="I188" s="9">
+        <v>22879</v>
+      </c>
+      <c r="J188" s="5">
+        <v>397688</v>
+      </c>
+      <c r="K188" s="1">
         <v>6.25</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
         <v>23</v>
       </c>
@@ -8572,14 +9174,17 @@
       <c r="H189" s="3">
         <v>15.058046429999999</v>
       </c>
-      <c r="I189" s="4">
-        <v>344</v>
-      </c>
-      <c r="J189" s="1">
+      <c r="I189" s="3">
+        <v>274667</v>
+      </c>
+      <c r="J189" s="5">
+        <v>397688</v>
+      </c>
+      <c r="K189" s="1">
         <v>6.09</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
         <v>23</v>
       </c>
@@ -8604,14 +9209,17 @@
       <c r="H190" s="3">
         <v>15.12580895</v>
       </c>
-      <c r="I190" s="4">
-        <v>369</v>
-      </c>
-      <c r="J190" s="1">
+      <c r="I190" s="3">
+        <v>366402</v>
+      </c>
+      <c r="J190" s="5">
+        <v>397688</v>
+      </c>
+      <c r="K190" s="1">
         <v>5.96</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
         <v>23</v>
       </c>
@@ -8636,14 +9244,17 @@
       <c r="H191" s="3">
         <v>15.33016349</v>
       </c>
-      <c r="I191" s="4">
-        <v>417</v>
-      </c>
-      <c r="J191" s="1">
+      <c r="I191" s="3">
+        <v>381453</v>
+      </c>
+      <c r="J191" s="5">
+        <v>397688</v>
+      </c>
+      <c r="K191" s="1">
         <v>5.94</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
         <v>23</v>
       </c>
@@ -8668,14 +9279,17 @@
       <c r="H192" s="3">
         <v>15.44</v>
       </c>
-      <c r="I192" s="4">
-        <v>455</v>
-      </c>
-      <c r="J192" s="1">
+      <c r="I192" s="3">
+        <v>380381</v>
+      </c>
+      <c r="J192" s="5">
+        <v>407382</v>
+      </c>
+      <c r="K192" s="1">
         <v>6.2</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
         <v>23</v>
       </c>
@@ -8700,14 +9314,17 @@
       <c r="H193" s="3">
         <v>15.52</v>
       </c>
-      <c r="I193" s="4">
-        <v>467</v>
-      </c>
-      <c r="J193" s="1">
+      <c r="I193" s="3">
+        <v>386343</v>
+      </c>
+      <c r="J193" s="5">
+        <v>397688</v>
+      </c>
+      <c r="K193" s="1">
         <v>6.19</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
         <v>23</v>
       </c>
@@ -8732,14 +9349,17 @@
       <c r="H194" s="3">
         <v>15.99</v>
       </c>
-      <c r="I194" s="4">
-        <v>447</v>
-      </c>
-      <c r="J194" s="1">
+      <c r="I194" s="3">
+        <v>331532</v>
+      </c>
+      <c r="J194" s="5">
+        <v>838383</v>
+      </c>
+      <c r="K194" s="1">
         <v>5.97</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
         <v>23</v>
       </c>
@@ -8764,14 +9384,17 @@
       <c r="H195" s="3">
         <v>16.05</v>
       </c>
-      <c r="I195" s="4">
-        <v>421</v>
-      </c>
-      <c r="J195" s="1">
+      <c r="I195" s="3">
+        <v>370254</v>
+      </c>
+      <c r="J195" s="5">
+        <v>838383</v>
+      </c>
+      <c r="K195" s="1">
         <v>6.4</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
         <v>23</v>
       </c>
@@ -8797,14 +9420,17 @@
       <c r="H196" s="3">
         <v>15.89</v>
       </c>
-      <c r="I196" s="4">
-        <v>421</v>
-      </c>
-      <c r="J196" s="1">
+      <c r="I196" s="3">
+        <v>415858</v>
+      </c>
+      <c r="J196" s="5">
+        <v>838383</v>
+      </c>
+      <c r="K196" s="1">
         <v>6.3</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
         <v>23</v>
       </c>
@@ -8829,14 +9455,17 @@
       <c r="H197" s="3">
         <v>15.84</v>
       </c>
-      <c r="I197" s="4">
-        <v>408</v>
-      </c>
-      <c r="J197" s="1">
+      <c r="I197" s="3">
+        <v>415858</v>
+      </c>
+      <c r="J197" s="5">
+        <v>838383</v>
+      </c>
+      <c r="K197" s="1">
         <v>6.45</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
         <v>23</v>
       </c>
@@ -8861,14 +9490,17 @@
       <c r="H198" s="3">
         <v>15.58</v>
       </c>
-      <c r="I198" s="4">
-        <v>395</v>
-      </c>
-      <c r="J198" s="1">
+      <c r="I198" s="3">
+        <v>415858</v>
+      </c>
+      <c r="J198" s="5">
+        <v>838383</v>
+      </c>
+      <c r="K198" s="1">
         <v>6.38</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
         <v>23</v>
       </c>
@@ -8893,14 +9525,17 @@
       <c r="H199" s="3">
         <v>15.77</v>
       </c>
-      <c r="I199" s="4">
-        <v>373</v>
-      </c>
-      <c r="J199" s="1">
+      <c r="I199" s="3">
+        <v>415858</v>
+      </c>
+      <c r="J199" s="5">
+        <v>332833</v>
+      </c>
+      <c r="K199" s="1">
         <v>6.57</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
         <v>14</v>
       </c>
@@ -8925,14 +9560,17 @@
       <c r="H200" s="3">
         <v>8.8188683619999999</v>
       </c>
-      <c r="I200" s="4">
-        <v>293</v>
-      </c>
-      <c r="J200" s="1">
+      <c r="I200" s="3">
+        <v>227567</v>
+      </c>
+      <c r="J200" s="5">
+        <v>332833</v>
+      </c>
+      <c r="K200" s="1">
         <v>6.23</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
         <v>14</v>
       </c>
@@ -8957,14 +9595,17 @@
       <c r="H201" s="3">
         <v>8.8151836229999994</v>
       </c>
-      <c r="I201" s="4">
-        <v>315</v>
-      </c>
-      <c r="J201" s="1">
+      <c r="I201" s="3">
+        <v>227567</v>
+      </c>
+      <c r="J201" s="5">
+        <v>332833</v>
+      </c>
+      <c r="K201" s="1">
         <v>6.25</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
         <v>14</v>
       </c>
@@ -8989,14 +9630,17 @@
       <c r="H202" s="3">
         <v>8.7724652209999991</v>
       </c>
-      <c r="I202" s="4">
-        <v>349</v>
-      </c>
-      <c r="J202" s="1">
+      <c r="I202" s="3">
+        <v>237492</v>
+      </c>
+      <c r="J202" s="5">
+        <v>332833</v>
+      </c>
+      <c r="K202" s="1">
         <v>5.83</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
         <v>14</v>
       </c>
@@ -9021,14 +9665,17 @@
       <c r="H203" s="3">
         <v>8.83</v>
       </c>
-      <c r="I203" s="4">
-        <v>361</v>
-      </c>
-      <c r="J203" s="1">
+      <c r="I203" s="3">
+        <v>237492</v>
+      </c>
+      <c r="J203" s="5">
+        <v>332833</v>
+      </c>
+      <c r="K203" s="1">
         <v>5.94</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
         <v>14</v>
       </c>
@@ -9053,14 +9700,17 @@
       <c r="H204" s="3">
         <v>8.9499999999999993</v>
       </c>
-      <c r="I204" s="4">
-        <v>367</v>
-      </c>
-      <c r="J204" s="1">
+      <c r="I204" s="3">
+        <v>236356</v>
+      </c>
+      <c r="J204" s="5">
+        <v>334356</v>
+      </c>
+      <c r="K204" s="1">
         <v>6.53</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
         <v>14</v>
       </c>
@@ -9085,14 +9735,17 @@
       <c r="H205" s="3">
         <v>8.2200000000000006</v>
       </c>
-      <c r="I205" s="4">
-        <v>353</v>
-      </c>
-      <c r="J205" s="1">
+      <c r="I205" s="3">
+        <v>242674</v>
+      </c>
+      <c r="J205" s="5">
+        <v>332833</v>
+      </c>
+      <c r="K205" s="1">
         <v>6.02</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
         <v>14</v>
       </c>
@@ -9117,14 +9770,17 @@
       <c r="H206" s="3">
         <v>8.33</v>
       </c>
-      <c r="I206" s="4">
-        <v>342</v>
-      </c>
-      <c r="J206" s="1">
+      <c r="I206" s="3">
+        <v>242674</v>
+      </c>
+      <c r="J206" s="5">
+        <v>1057762</v>
+      </c>
+      <c r="K206" s="1">
         <v>6.13</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
         <v>14</v>
       </c>
@@ -9150,14 +9806,17 @@
       <c r="H207" s="3">
         <v>8.58</v>
       </c>
-      <c r="I207" s="4">
-        <v>331</v>
-      </c>
-      <c r="J207" s="1">
+      <c r="I207" s="3">
+        <v>238469</v>
+      </c>
+      <c r="J207" s="5">
+        <v>1057762</v>
+      </c>
+      <c r="K207" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
         <v>14</v>
       </c>
@@ -9182,14 +9841,17 @@
       <c r="H208" s="3">
         <v>8.7100000000000009</v>
       </c>
-      <c r="I208" s="4">
-        <v>317</v>
-      </c>
-      <c r="J208" s="1">
+      <c r="I208" s="3">
+        <v>238469</v>
+      </c>
+      <c r="J208" s="5">
+        <v>1057762</v>
+      </c>
+      <c r="K208" s="1">
         <v>5.98</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
         <v>14</v>
       </c>
@@ -9214,14 +9876,17 @@
       <c r="H209" s="3">
         <v>8.82</v>
       </c>
-      <c r="I209" s="4">
-        <v>299</v>
-      </c>
-      <c r="J209" s="1">
+      <c r="I209" s="3">
+        <v>238469</v>
+      </c>
+      <c r="J209" s="5">
+        <v>1026865</v>
+      </c>
+      <c r="K209" s="1">
         <v>6.04</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
         <v>14</v>
       </c>
@@ -9246,14 +9911,17 @@
       <c r="H210" s="3">
         <v>8.9</v>
       </c>
-      <c r="I210" s="4">
-        <v>281</v>
-      </c>
-      <c r="J210" s="1">
+      <c r="I210" s="3">
+        <v>238469</v>
+      </c>
+      <c r="J210" s="5">
+        <v>1067788</v>
+      </c>
+      <c r="K210" s="1">
         <v>6.19</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
         <v>18</v>
       </c>
@@ -9278,14 +9946,17 @@
       <c r="H211" s="3">
         <v>16.637450749999999</v>
       </c>
-      <c r="I211" s="4">
-        <v>228</v>
-      </c>
-      <c r="J211" s="1">
+      <c r="I211" s="3">
+        <v>64188</v>
+      </c>
+      <c r="J211" s="5">
+        <v>1176981</v>
+      </c>
+      <c r="K211" s="1">
         <v>6.32</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
         <v>18</v>
       </c>
@@ -9310,14 +9981,17 @@
       <c r="H212" s="3">
         <v>17.03052765</v>
       </c>
-      <c r="I212" s="4">
-        <v>237</v>
-      </c>
-      <c r="J212" s="1">
+      <c r="I212" s="3">
+        <v>63389</v>
+      </c>
+      <c r="J212" s="5">
+        <v>1176981</v>
+      </c>
+      <c r="K212" s="1">
         <v>6.05</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
         <v>18</v>
       </c>
@@ -9342,14 +10016,17 @@
       <c r="H213" s="3">
         <v>17.293116130000001</v>
       </c>
-      <c r="I213" s="4">
-        <v>255</v>
-      </c>
-      <c r="J213" s="1">
+      <c r="I213" s="3">
+        <v>63389</v>
+      </c>
+      <c r="J213" s="5">
+        <v>1178942</v>
+      </c>
+      <c r="K213" s="1">
         <v>6.28</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
         <v>18</v>
       </c>
@@ -9374,14 +10051,17 @@
       <c r="H214" s="3">
         <v>17.510000000000002</v>
       </c>
-      <c r="I214" s="4">
-        <v>264</v>
-      </c>
-      <c r="J214" s="1">
+      <c r="I214" s="3">
+        <v>63389</v>
+      </c>
+      <c r="J214" s="5">
+        <v>1180453</v>
+      </c>
+      <c r="K214" s="1">
         <v>6.02</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
         <v>18</v>
       </c>
@@ -9406,14 +10086,17 @@
       <c r="H215" s="3">
         <v>17.7</v>
       </c>
-      <c r="I215" s="4">
-        <v>265</v>
-      </c>
-      <c r="J215" s="1">
+      <c r="I215" s="3">
+        <v>65399</v>
+      </c>
+      <c r="J215" s="5">
+        <v>1182622</v>
+      </c>
+      <c r="K215" s="1">
         <v>6.43</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
         <v>18</v>
       </c>
@@ -9438,14 +10121,17 @@
       <c r="H216" s="3">
         <v>23.01</v>
       </c>
-      <c r="I216" s="4">
-        <v>265</v>
-      </c>
-      <c r="J216" s="1">
+      <c r="I216" s="3">
+        <v>60377</v>
+      </c>
+      <c r="J216" s="5">
+        <v>1182622</v>
+      </c>
+      <c r="K216" s="1">
         <v>6.03</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
         <v>18</v>
       </c>
@@ -9470,14 +10156,17 @@
       <c r="H217" s="3">
         <v>23.5</v>
       </c>
-      <c r="I217" s="4">
-        <v>266</v>
-      </c>
-      <c r="J217" s="1">
+      <c r="I217" s="3">
+        <v>60380</v>
+      </c>
+      <c r="J217" s="5">
+        <v>1178942</v>
+      </c>
+      <c r="K217" s="1">
         <v>6.34</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
         <v>18</v>
       </c>
@@ -9503,14 +10192,17 @@
       <c r="H218" s="3">
         <v>23.63</v>
       </c>
-      <c r="I218" s="4">
-        <v>263</v>
-      </c>
-      <c r="J218" s="1">
+      <c r="I218" s="3">
+        <v>60380</v>
+      </c>
+      <c r="J218" s="5">
+        <v>560000</v>
+      </c>
+      <c r="K218" s="1">
         <v>6.39</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
         <v>18</v>
       </c>
@@ -9535,14 +10227,17 @@
       <c r="H219" s="3">
         <v>23.68</v>
       </c>
-      <c r="I219" s="4">
-        <v>257</v>
-      </c>
-      <c r="J219" s="1">
+      <c r="I219" s="3">
+        <v>42905</v>
+      </c>
+      <c r="J219" s="5">
+        <v>560000</v>
+      </c>
+      <c r="K219" s="1">
         <v>6.14</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
         <v>18</v>
       </c>
@@ -9567,14 +10262,17 @@
       <c r="H220" s="3">
         <v>23.69</v>
       </c>
-      <c r="I220" s="4">
-        <v>248</v>
-      </c>
-      <c r="J220" s="1">
+      <c r="I220" s="3">
+        <v>42905</v>
+      </c>
+      <c r="J220" s="5">
+        <v>560000</v>
+      </c>
+      <c r="K220" s="1">
         <v>6.15</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
         <v>18</v>
       </c>
@@ -9599,14 +10297,17 @@
       <c r="H221" s="3">
         <v>22.95</v>
       </c>
-      <c r="I221" s="4">
-        <v>240</v>
-      </c>
-      <c r="J221" s="1">
+      <c r="I221" s="3">
+        <v>42905</v>
+      </c>
+      <c r="J221" s="5">
+        <v>560000</v>
+      </c>
+      <c r="K221" s="1">
         <v>6.34</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
         <v>2</v>
       </c>
@@ -9631,14 +10332,17 @@
       <c r="H222" s="3">
         <v>36.558951700000001</v>
       </c>
-      <c r="I222" s="4">
-        <v>109</v>
-      </c>
-      <c r="J222" s="1">
+      <c r="I222" s="9">
+        <v>80070</v>
+      </c>
+      <c r="J222" s="5">
+        <v>560000</v>
+      </c>
+      <c r="K222" s="1">
         <v>6.18</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
         <v>2</v>
       </c>
@@ -9663,14 +10367,17 @@
       <c r="H223" s="3">
         <v>36.314534219999999</v>
       </c>
-      <c r="I223" s="4">
-        <v>121</v>
-      </c>
-      <c r="J223" s="1">
+      <c r="I223" s="9">
+        <v>82242</v>
+      </c>
+      <c r="J223" s="5">
+        <v>733026</v>
+      </c>
+      <c r="K223" s="1">
         <v>6.52</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
         <v>2</v>
       </c>
@@ -9695,14 +10402,17 @@
       <c r="H224" s="3">
         <v>36.900004930000001</v>
       </c>
-      <c r="I224" s="4">
-        <v>130</v>
-      </c>
-      <c r="J224" s="1">
+      <c r="I224" s="9">
+        <v>81454</v>
+      </c>
+      <c r="J224" s="5">
+        <v>733026</v>
+      </c>
+      <c r="K224" s="1">
         <v>6.53</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
         <v>2</v>
       </c>
@@ -9727,14 +10437,17 @@
       <c r="H225" s="3">
         <v>37.44</v>
       </c>
-      <c r="I225" s="4">
-        <v>130</v>
-      </c>
-      <c r="J225" s="1">
+      <c r="I225" s="9">
+        <v>81454</v>
+      </c>
+      <c r="J225" s="5">
+        <v>733026</v>
+      </c>
+      <c r="K225" s="1">
         <v>6.63</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
         <v>2</v>
       </c>
@@ -9759,14 +10472,17 @@
       <c r="H226" s="3">
         <v>38.04</v>
       </c>
-      <c r="I226" s="4">
-        <v>132</v>
-      </c>
-      <c r="J226" s="1">
+      <c r="I226" s="9">
+        <v>81454</v>
+      </c>
+      <c r="J226" s="5">
+        <v>733026</v>
+      </c>
+      <c r="K226" s="1">
         <v>6.37</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
         <v>2</v>
       </c>
@@ -9791,14 +10507,17 @@
       <c r="H227" s="3">
         <v>38.46</v>
       </c>
-      <c r="I227" s="4">
-        <v>129</v>
-      </c>
-      <c r="J227" s="1">
+      <c r="I227" s="9">
+        <v>84721</v>
+      </c>
+      <c r="J227" s="5">
+        <v>733026</v>
+      </c>
+      <c r="K227" s="1">
         <v>6.43</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
         <v>2</v>
       </c>
@@ -9823,14 +10542,17 @@
       <c r="H228" s="3">
         <v>38.979999999999997</v>
       </c>
-      <c r="I228" s="4">
-        <v>125</v>
-      </c>
-      <c r="J228" s="1">
+      <c r="I228" s="9">
+        <v>84721</v>
+      </c>
+      <c r="J228" s="5">
+        <v>733026</v>
+      </c>
+      <c r="K228" s="1">
         <v>6.39</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
         <v>2</v>
       </c>
@@ -9856,14 +10578,17 @@
       <c r="H229" s="3">
         <v>37.22</v>
       </c>
-      <c r="I229" s="4">
-        <v>128</v>
-      </c>
-      <c r="J229" s="1">
+      <c r="I229" s="9">
+        <v>84721</v>
+      </c>
+      <c r="J229" s="5">
+        <v>733026</v>
+      </c>
+      <c r="K229" s="1">
         <v>6.16</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
         <v>2</v>
       </c>
@@ -9888,14 +10613,17 @@
       <c r="H230" s="3">
         <v>39.19</v>
       </c>
-      <c r="I230" s="4">
-        <v>125</v>
-      </c>
-      <c r="J230" s="1">
+      <c r="I230" s="9">
+        <v>78174</v>
+      </c>
+      <c r="J230" s="5">
+        <v>2398452</v>
+      </c>
+      <c r="K230" s="1">
         <v>6.47</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
         <v>2</v>
       </c>
@@ -9920,14 +10648,17 @@
       <c r="H231" s="3">
         <v>39.25</v>
       </c>
-      <c r="I231" s="4">
-        <v>119</v>
-      </c>
-      <c r="J231" s="1">
+      <c r="I231" s="9">
+        <v>76452</v>
+      </c>
+      <c r="J231" s="5">
+        <v>2399146</v>
+      </c>
+      <c r="K231" s="1">
         <v>6.68</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A232" t="s">
         <v>2</v>
       </c>
@@ -9952,14 +10683,17 @@
       <c r="H232" s="3">
         <v>39.020000000000003</v>
       </c>
-      <c r="I232" s="4">
-        <v>116</v>
-      </c>
-      <c r="J232" s="1">
+      <c r="I232" s="9">
+        <v>74456</v>
+      </c>
+      <c r="J232" s="5">
+        <v>2399146</v>
+      </c>
+      <c r="K232" s="1">
         <v>6.43</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
         <v>11</v>
       </c>
@@ -9984,14 +10718,17 @@
       <c r="H233" s="3">
         <v>29.701736700000001</v>
       </c>
-      <c r="I233" s="4">
-        <v>302</v>
-      </c>
-      <c r="J233" s="1">
+      <c r="I233" s="3">
+        <v>99711</v>
+      </c>
+      <c r="J233" s="5">
+        <v>2399146</v>
+      </c>
+      <c r="K233" s="1">
         <v>6.39</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A234" t="s">
         <v>11</v>
       </c>
@@ -10016,14 +10753,17 @@
       <c r="H234" s="3">
         <v>29.405103780000001</v>
       </c>
-      <c r="I234" s="4">
-        <v>319</v>
-      </c>
-      <c r="J234" s="1">
+      <c r="I234" s="3">
+        <v>99711</v>
+      </c>
+      <c r="J234" s="5">
+        <v>2399146</v>
+      </c>
+      <c r="K234" s="1">
         <v>5.99</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A235" t="s">
         <v>11</v>
       </c>
@@ -10048,14 +10788,17 @@
       <c r="H235" s="3">
         <v>28.945040680000002</v>
       </c>
-      <c r="I235" s="4">
-        <v>356</v>
-      </c>
-      <c r="J235" s="1">
+      <c r="I235" s="3">
+        <v>99711</v>
+      </c>
+      <c r="J235" s="5">
+        <v>2597140</v>
+      </c>
+      <c r="K235" s="1">
         <v>6.2</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A236" t="s">
         <v>11</v>
       </c>
@@ -10080,14 +10823,17 @@
       <c r="H236" s="3">
         <v>28.82</v>
       </c>
-      <c r="I236" s="4">
-        <v>367</v>
-      </c>
-      <c r="J236" s="1">
+      <c r="I236" s="3">
+        <v>113402</v>
+      </c>
+      <c r="J236" s="5">
+        <v>2559127</v>
+      </c>
+      <c r="K236" s="1">
         <v>6.45</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
         <v>11</v>
       </c>
@@ -10112,14 +10858,17 @@
       <c r="H237" s="3">
         <v>29.11</v>
       </c>
-      <c r="I237" s="4">
-        <v>356</v>
-      </c>
-      <c r="J237" s="1">
+      <c r="I237" s="3">
+        <v>115644</v>
+      </c>
+      <c r="J237" s="5">
+        <v>2559127</v>
+      </c>
+      <c r="K237" s="1">
         <v>6.07</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
         <v>11</v>
       </c>
@@ -10144,14 +10893,17 @@
       <c r="H238" s="3">
         <v>27.94</v>
       </c>
-      <c r="I238" s="4">
-        <v>331</v>
-      </c>
-      <c r="J238" s="1">
+      <c r="I238" s="3">
+        <v>115644</v>
+      </c>
+      <c r="J238" s="5">
+        <v>2559127</v>
+      </c>
+      <c r="K238" s="1">
         <v>6.19</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
         <v>11</v>
       </c>
@@ -10176,14 +10928,17 @@
       <c r="H239" s="3">
         <v>28.3</v>
       </c>
-      <c r="I239" s="4">
-        <v>314</v>
-      </c>
-      <c r="J239" s="1">
+      <c r="I239" s="3">
+        <v>105854</v>
+      </c>
+      <c r="J239" s="5">
+        <v>2559127</v>
+      </c>
+      <c r="K239" s="1">
         <v>6.38</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
         <v>11</v>
       </c>
@@ -10209,14 +10964,17 @@
       <c r="H240" s="3">
         <v>28.55</v>
       </c>
-      <c r="I240" s="4">
-        <v>294</v>
-      </c>
-      <c r="J240" s="1">
+      <c r="I240" s="3">
+        <v>105854</v>
+      </c>
+      <c r="J240" s="5">
+        <v>2559127</v>
+      </c>
+      <c r="K240" s="1">
         <v>6.69</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
         <v>11</v>
       </c>
@@ -10241,14 +10999,17 @@
       <c r="H241" s="3">
         <v>28.77</v>
       </c>
-      <c r="I241" s="4">
-        <v>278</v>
-      </c>
-      <c r="J241" s="1">
+      <c r="I241" s="3">
+        <v>106724</v>
+      </c>
+      <c r="J241" s="5">
+        <v>2559127</v>
+      </c>
+      <c r="K241" s="1">
         <v>6.44</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
         <v>11</v>
       </c>
@@ -10273,14 +11034,17 @@
       <c r="H242" s="3">
         <v>28.96</v>
       </c>
-      <c r="I242" s="4">
-        <v>263</v>
-      </c>
-      <c r="J242" s="1">
+      <c r="I242" s="3">
+        <v>106724</v>
+      </c>
+      <c r="J242" s="5">
+        <v>1483904</v>
+      </c>
+      <c r="K242" s="1">
         <v>6.11</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A243" t="s">
         <v>11</v>
       </c>
@@ -10305,14 +11069,17 @@
       <c r="H243" s="3">
         <v>28.97</v>
       </c>
-      <c r="I243" s="4">
-        <v>246</v>
-      </c>
-      <c r="J243" s="1">
+      <c r="I243" s="3">
+        <v>106724</v>
+      </c>
+      <c r="J243" s="5">
+        <v>1483904</v>
+      </c>
+      <c r="K243" s="1">
         <v>6.63</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A244" t="s">
         <v>0</v>
       </c>
@@ -10337,14 +11104,17 @@
       <c r="H244" s="3">
         <v>65.634548420000002</v>
       </c>
-      <c r="I244" s="4">
-        <v>72</v>
-      </c>
-      <c r="J244" s="1">
+      <c r="I244" s="10">
+        <v>104677</v>
+      </c>
+      <c r="J244" s="5">
+        <v>1490319</v>
+      </c>
+      <c r="K244" s="1">
         <v>6.08</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A245" t="s">
         <v>0</v>
       </c>
@@ -10369,14 +11139,17 @@
       <c r="H245" s="3">
         <v>66.490539369999993</v>
       </c>
-      <c r="I245" s="4">
-        <v>69</v>
-      </c>
-      <c r="J245" s="1">
+      <c r="I245" s="10">
+        <v>104981</v>
+      </c>
+      <c r="J245" s="5">
+        <v>1490319</v>
+      </c>
+      <c r="K245" s="1">
         <v>6.34</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A246" t="s">
         <v>0</v>
       </c>
@@ -10401,14 +11174,17 @@
       <c r="H246" s="3">
         <v>67.768375430000006</v>
       </c>
-      <c r="I246" s="4">
-        <v>71</v>
-      </c>
-      <c r="J246" s="1">
+      <c r="I246" s="10">
+        <v>104981</v>
+      </c>
+      <c r="J246" s="5">
+        <v>1490319</v>
+      </c>
+      <c r="K246" s="1">
         <v>6.54</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
         <v>0</v>
       </c>
@@ -10433,14 +11209,17 @@
       <c r="H247" s="3">
         <v>69.94</v>
       </c>
-      <c r="I247" s="4">
-        <v>75</v>
-      </c>
-      <c r="J247" s="1">
+      <c r="I247" s="10">
+        <v>104981</v>
+      </c>
+      <c r="J247" s="5">
+        <v>1237935</v>
+      </c>
+      <c r="K247" s="1">
         <v>6.71</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
         <v>0</v>
       </c>
@@ -10465,14 +11244,17 @@
       <c r="H248" s="3">
         <v>71.31</v>
       </c>
-      <c r="I248" s="4">
-        <v>77</v>
-      </c>
-      <c r="J248" s="1">
+      <c r="I248" s="10">
+        <v>76901</v>
+      </c>
+      <c r="J248" s="5">
+        <v>1237935</v>
+      </c>
+      <c r="K248" s="1">
         <v>6.65</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A249" t="s">
         <v>0</v>
       </c>
@@ -10497,14 +11279,17 @@
       <c r="H249" s="3">
         <v>72.239999999999995</v>
       </c>
-      <c r="I249" s="4">
-        <v>79</v>
-      </c>
-      <c r="J249" s="1">
+      <c r="I249" s="10">
+        <v>76901</v>
+      </c>
+      <c r="J249" s="5">
+        <v>1260795</v>
+      </c>
+      <c r="K249" s="1">
         <v>6.4</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A250" t="s">
         <v>0</v>
       </c>
@@ -10529,14 +11314,17 @@
       <c r="H250" s="3">
         <v>73.36</v>
       </c>
-      <c r="I250" s="4">
-        <v>81</v>
-      </c>
-      <c r="J250" s="1">
+      <c r="I250" s="10">
+        <v>76901</v>
+      </c>
+      <c r="J250" s="5">
+        <v>1260795</v>
+      </c>
+      <c r="K250" s="1">
         <v>6.67</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A251" t="s">
         <v>0</v>
       </c>
@@ -10562,14 +11350,17 @@
       <c r="H251" s="3">
         <v>72.39</v>
       </c>
-      <c r="I251" s="4">
-        <v>75</v>
-      </c>
-      <c r="J251" s="1">
+      <c r="I251" s="10">
+        <v>76901</v>
+      </c>
+      <c r="J251" s="5">
+        <v>1260795</v>
+      </c>
+      <c r="K251" s="1">
         <v>6.09</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
         <v>0</v>
       </c>
@@ -10594,14 +11385,17 @@
       <c r="H252" s="3">
         <v>73.2</v>
       </c>
-      <c r="I252" s="4">
-        <v>78</v>
-      </c>
-      <c r="J252" s="1">
+      <c r="I252" s="10">
+        <v>76901</v>
+      </c>
+      <c r="J252" s="5">
+        <v>1260795</v>
+      </c>
+      <c r="K252" s="1">
         <v>6.1</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
         <v>0</v>
       </c>
@@ -10626,14 +11420,17 @@
       <c r="H253" s="3">
         <v>74.06</v>
       </c>
-      <c r="I253" s="4">
-        <v>77</v>
-      </c>
-      <c r="J253" s="1">
+      <c r="I253" s="10">
+        <v>76901</v>
+      </c>
+      <c r="J253" s="5">
+        <v>1245008</v>
+      </c>
+      <c r="K253" s="1">
         <v>6.43</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A254" t="s">
         <v>0</v>
       </c>
@@ -10658,14 +11455,17 @@
       <c r="H254" s="3">
         <v>75</v>
       </c>
-      <c r="I254" s="4">
-        <v>74</v>
-      </c>
-      <c r="J254" s="1">
+      <c r="I254" s="10">
+        <v>64145</v>
+      </c>
+      <c r="J254" s="5">
+        <v>286880</v>
+      </c>
+      <c r="K254" s="1">
         <v>6.41</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
         <v>1</v>
       </c>
@@ -10690,14 +11490,17 @@
       <c r="H255" s="3">
         <v>0</v>
       </c>
-      <c r="I255" s="4">
-        <v>52</v>
-      </c>
-      <c r="J255" s="1">
+      <c r="I255" s="9">
+        <v>47885</v>
+      </c>
+      <c r="J255" s="5">
+        <v>286948</v>
+      </c>
+      <c r="K255" s="1">
         <v>6.3</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A256" t="s">
         <v>1</v>
       </c>
@@ -10722,14 +11525,17 @@
       <c r="H256" s="3">
         <v>0</v>
       </c>
-      <c r="I256" s="4">
-        <v>52</v>
-      </c>
-      <c r="J256" s="1">
+      <c r="I256" s="9">
+        <v>47885</v>
+      </c>
+      <c r="J256" s="5">
+        <v>286948</v>
+      </c>
+      <c r="K256" s="1">
         <v>6.03</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A257" t="s">
         <v>1</v>
       </c>
@@ -10754,14 +11560,17 @@
       <c r="H257" s="3">
         <v>0</v>
       </c>
-      <c r="I257" s="4">
-        <v>57</v>
-      </c>
-      <c r="J257" s="1">
+      <c r="I257" s="9">
+        <v>47885</v>
+      </c>
+      <c r="J257" s="5">
+        <v>286948</v>
+      </c>
+      <c r="K257" s="1">
         <v>6.1</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A258" t="s">
         <v>1</v>
       </c>
@@ -10786,14 +11595,17 @@
       <c r="H258" s="3">
         <v>0</v>
       </c>
-      <c r="I258" s="4">
-        <v>65</v>
-      </c>
-      <c r="J258" s="1">
+      <c r="I258" s="9">
+        <v>47885</v>
+      </c>
+      <c r="J258" s="5">
+        <v>286948</v>
+      </c>
+      <c r="K258" s="1">
         <v>6.52</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A259" t="s">
         <v>1</v>
       </c>
@@ -10818,14 +11630,17 @@
       <c r="H259" s="3">
         <v>0.2</v>
       </c>
-      <c r="I259" s="4">
-        <v>65</v>
-      </c>
-      <c r="J259" s="1">
+      <c r="I259" s="9">
+        <v>47885</v>
+      </c>
+      <c r="J259" s="5">
+        <v>424789</v>
+      </c>
+      <c r="K259" s="1">
         <v>6.45</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A260" t="s">
         <v>1</v>
       </c>
@@ -10850,14 +11665,17 @@
       <c r="H260" s="3">
         <v>0.2</v>
       </c>
-      <c r="I260" s="4">
-        <v>66</v>
-      </c>
-      <c r="J260" s="1">
+      <c r="I260" s="9">
+        <v>47885</v>
+      </c>
+      <c r="J260" s="5">
+        <v>424789</v>
+      </c>
+      <c r="K260" s="1">
         <v>6.22</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A261" t="s">
         <v>1</v>
       </c>
@@ -10882,14 +11700,17 @@
       <c r="H261" s="3">
         <v>0.2</v>
       </c>
-      <c r="I261" s="4">
-        <v>67</v>
-      </c>
-      <c r="J261" s="1">
+      <c r="I261" s="9">
+        <v>47885</v>
+      </c>
+      <c r="J261" s="5">
+        <v>410949</v>
+      </c>
+      <c r="K261" s="1">
         <v>6.31</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A262" t="s">
         <v>1</v>
       </c>
@@ -10915,14 +11736,17 @@
       <c r="H262" s="3">
         <v>0.2</v>
       </c>
-      <c r="I262" s="4">
-        <v>67</v>
-      </c>
-      <c r="J262" s="1">
+      <c r="I262" s="9">
+        <v>47885</v>
+      </c>
+      <c r="J262" s="5">
+        <v>419019</v>
+      </c>
+      <c r="K262" s="1">
         <v>6.41</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A263" t="s">
         <v>1</v>
       </c>
@@ -10947,14 +11771,17 @@
       <c r="H263" s="3">
         <v>0.2</v>
       </c>
-      <c r="I263" s="4">
-        <v>69</v>
-      </c>
-      <c r="J263" s="1">
+      <c r="I263" s="9">
+        <v>47885</v>
+      </c>
+      <c r="J263" s="5">
+        <v>422289</v>
+      </c>
+      <c r="K263" s="1">
         <v>6.37</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A264" t="s">
         <v>1</v>
       </c>
@@ -10979,14 +11806,17 @@
       <c r="H264" s="3">
         <v>0.2</v>
       </c>
-      <c r="I264" s="4">
-        <v>69</v>
-      </c>
-      <c r="J264" s="1">
+      <c r="I264" s="9">
+        <v>47885</v>
+      </c>
+      <c r="J264" s="5">
+        <v>430859</v>
+      </c>
+      <c r="K264" s="1">
         <v>6.21</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A265" t="s">
         <v>1</v>
       </c>
@@ -11011,14 +11841,17 @@
       <c r="H265" s="3">
         <v>0.2</v>
       </c>
-      <c r="I265" s="4">
-        <v>67</v>
-      </c>
-      <c r="J265" s="1">
+      <c r="I265" s="9">
+        <v>32251</v>
+      </c>
+      <c r="J265" s="5">
+        <v>424789</v>
+      </c>
+      <c r="K265" s="1">
         <v>6.44</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A266" t="s">
         <v>6</v>
       </c>
@@ -11043,14 +11876,17 @@
       <c r="H266" s="3">
         <v>18.204613349999999</v>
       </c>
-      <c r="I266" s="4">
-        <v>256</v>
-      </c>
-      <c r="J266" s="1">
+      <c r="I266" s="9">
+        <v>173751</v>
+      </c>
+      <c r="J266" s="5">
+        <v>3749385</v>
+      </c>
+      <c r="K266" s="1">
         <v>6.29</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A267" t="s">
         <v>6</v>
       </c>
@@ -11075,14 +11911,17 @@
       <c r="H267" s="3">
         <v>18.365689889999999</v>
       </c>
-      <c r="I267" s="4">
-        <v>264</v>
-      </c>
-      <c r="J267" s="1">
+      <c r="I267" s="9">
+        <v>187308</v>
+      </c>
+      <c r="J267" s="5">
+        <v>3749385</v>
+      </c>
+      <c r="K267" s="1">
         <v>6.37</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A268" t="s">
         <v>6</v>
       </c>
@@ -11107,14 +11946,17 @@
       <c r="H268" s="3">
         <v>18.55889767</v>
       </c>
-      <c r="I268" s="4">
-        <v>273</v>
-      </c>
-      <c r="J268" s="1">
+      <c r="I268" s="9">
+        <v>187309</v>
+      </c>
+      <c r="J268" s="5">
+        <v>3749385</v>
+      </c>
+      <c r="K268" s="1">
         <v>6.59</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A269" t="s">
         <v>6</v>
       </c>
@@ -11139,14 +11981,17 @@
       <c r="H269" s="3">
         <v>18.670000000000002</v>
       </c>
-      <c r="I269" s="4">
-        <v>274</v>
-      </c>
-      <c r="J269" s="1">
+      <c r="I269" s="9">
+        <v>187309</v>
+      </c>
+      <c r="J269" s="5">
+        <v>3730000</v>
+      </c>
+      <c r="K269" s="1">
         <v>6.32</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A270" t="s">
         <v>6</v>
       </c>
@@ -11171,14 +12016,17 @@
       <c r="H270" s="3">
         <v>18.579999999999998</v>
       </c>
-      <c r="I270" s="4">
-        <v>276</v>
-      </c>
-      <c r="J270" s="1">
+      <c r="I270" s="9">
+        <v>187309</v>
+      </c>
+      <c r="J270" s="5">
+        <v>3730000</v>
+      </c>
+      <c r="K270" s="1">
         <v>6.38</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A271" t="s">
         <v>6</v>
       </c>
@@ -11203,14 +12051,17 @@
       <c r="H271" s="3">
         <v>18.8</v>
       </c>
-      <c r="I271" s="4">
-        <v>262</v>
-      </c>
-      <c r="J271" s="1">
+      <c r="I271" s="9">
+        <v>187309</v>
+      </c>
+      <c r="J271" s="5">
+        <v>2937285</v>
+      </c>
+      <c r="K271" s="1">
         <v>6.27</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A272" t="s">
         <v>6</v>
       </c>
@@ -11235,14 +12086,17 @@
       <c r="H272" s="3">
         <v>18.93</v>
       </c>
-      <c r="I272" s="4">
-        <v>260</v>
-      </c>
-      <c r="J272" s="1">
+      <c r="I272" s="9">
+        <v>187309</v>
+      </c>
+      <c r="J272" s="5">
+        <v>2937285</v>
+      </c>
+      <c r="K272" s="1">
         <v>6.16</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A273" t="s">
         <v>6</v>
       </c>
@@ -11268,14 +12122,17 @@
       <c r="H273" s="3">
         <v>18.010000000000002</v>
       </c>
-      <c r="I273" s="4">
-        <v>252</v>
-      </c>
-      <c r="J273" s="1">
+      <c r="I273" s="9">
+        <v>187309</v>
+      </c>
+      <c r="J273" s="5">
+        <v>2937285</v>
+      </c>
+      <c r="K273" s="1">
         <v>6.59</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A274" t="s">
         <v>6</v>
       </c>
@@ -11300,14 +12157,17 @@
       <c r="H274" s="3">
         <v>18.23</v>
       </c>
-      <c r="I274" s="4">
-        <v>241</v>
-      </c>
-      <c r="J274" s="1">
+      <c r="I274" s="9">
+        <v>187309</v>
+      </c>
+      <c r="J274" s="5">
+        <v>2937285</v>
+      </c>
+      <c r="K274" s="1">
         <v>6.44</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A275" t="s">
         <v>6</v>
       </c>
@@ -11332,14 +12192,17 @@
       <c r="H275" s="3">
         <v>18.52</v>
       </c>
-      <c r="I275" s="4">
-        <v>230</v>
-      </c>
-      <c r="J275" s="1">
+      <c r="I275" s="9">
+        <v>187309</v>
+      </c>
+      <c r="J275" s="5">
+        <v>2937285</v>
+      </c>
+      <c r="K275" s="1">
         <v>6.48</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A276" t="s">
         <v>6</v>
       </c>
@@ -11364,12 +12227,90 @@
       <c r="H276" s="3">
         <v>18.63</v>
       </c>
-      <c r="I276" s="4">
-        <v>220</v>
-      </c>
-      <c r="J276" s="1">
+      <c r="I276" s="9">
+        <v>187309</v>
+      </c>
+      <c r="J276" s="5">
+        <v>2937285</v>
+      </c>
+      <c r="K276" s="1">
         <v>6.57</v>
       </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J277" s="5"/>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J278" s="5"/>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J279" s="5"/>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J280" s="5"/>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J281" s="5"/>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J282" s="5"/>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J283" s="5"/>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J284" s="5"/>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J285" s="5"/>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J286" s="5"/>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J287" s="5"/>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J288" s="5"/>
+    </row>
+    <row r="289" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J289" s="5"/>
+    </row>
+    <row r="290" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J290" s="5"/>
+    </row>
+    <row r="291" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J291" s="5"/>
+    </row>
+    <row r="292" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J292" s="5"/>
+    </row>
+    <row r="293" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J293" s="5"/>
+    </row>
+    <row r="294" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J294" s="5"/>
+    </row>
+    <row r="295" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J295" s="5"/>
+    </row>
+    <row r="296" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J296" s="5"/>
+    </row>
+    <row r="297" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J297" s="5"/>
+    </row>
+    <row r="298" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J298" s="5"/>
+    </row>
+    <row r="299" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J299" s="5"/>
+    </row>
+    <row r="300" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J300" s="5"/>
+    </row>
+    <row r="301" spans="10:10" x14ac:dyDescent="0.4">
+      <c r="J301" s="5"/>
     </row>
     <row r="378" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D378" s="1"/>
@@ -11451,7 +12392,7 @@
     <sortCondition ref="A2:A277"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="J2:J26">
+  <conditionalFormatting sqref="K2:K26">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11:AL11">
